--- a/Testing/aa_writing_02.xlsx
+++ b/Testing/aa_writing_02.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{B4D9398B-8B3D-441D-9C81-826812D5722C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="49">
   <si>
     <t>Computer</t>
   </si>
@@ -51,18 +49,6 @@
   </si>
   <si>
     <t>iMac G5</t>
-  </si>
-  <si>
-    <t>Run 1</t>
-  </si>
-  <si>
-    <t>Run 2</t>
-  </si>
-  <si>
-    <t>Run 3</t>
-  </si>
-  <si>
-    <t>Avg Time</t>
   </si>
   <si>
     <t>N^2</t>
@@ -157,12 +143,39 @@
   <si>
     <t>ThinkPad L584</t>
   </si>
+  <si>
+    <t>MacBook Air</t>
+  </si>
+  <si>
+    <t>Run 1 JAVA</t>
+  </si>
+  <si>
+    <t>Run 2 JAVA</t>
+  </si>
+  <si>
+    <t>Run 3 JAVA</t>
+  </si>
+  <si>
+    <t>Avg Time JAVA</t>
+  </si>
+  <si>
+    <t>Avg Time C++</t>
+  </si>
+  <si>
+    <t>Run 1 C++</t>
+  </si>
+  <si>
+    <t>Run 2 C++</t>
+  </si>
+  <si>
+    <t>Run 3 C++</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +191,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,15 +224,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="31">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -262,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -314,7 +414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -508,68 +608,89 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EC7DF1-1E7C-4D80-A4EC-FC1113406593}">
-  <dimension ref="A1:K101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -579,7 +700,7 @@
         <f>C2^2</f>
         <v>1000000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>C2 * LOG(C2, 2)</f>
         <v>9965.7842846620879</v>
       </c>
@@ -592,7 +713,7 @@
       <c r="H2">
         <v>11.649024000000001</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <f>AVERAGE(F2:H2)</f>
         <v>11.424938666666668</v>
       </c>
@@ -600,16 +721,20 @@
         <f>I2/D2</f>
         <v>1.1424938666666668E-5</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <f>I2/E2</f>
         <v>1.1464164124293059E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O2" s="3" t="e">
+        <f>AVERAGE(L2:N2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -619,7 +744,7 @@
         <f t="shared" ref="D3:D66" si="0">C3^2</f>
         <v>100000000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E26" si="1">C3 * LOG(C3, 2)</f>
         <v>132877.1237954945</v>
       </c>
@@ -632,7 +757,7 @@
       <c r="H3">
         <v>423.20384000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <f t="shared" ref="I3:I51" si="2">AVERAGE(F3:H3)</f>
         <v>420.93499733333329</v>
       </c>
@@ -640,16 +765,20 @@
         <f t="shared" ref="J3:J51" si="3">I3/D3</f>
         <v>4.2093499733333324E-6</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <f t="shared" ref="K3:K51" si="4">I3/E3</f>
         <v>3.1678515105517811E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O3" s="3" t="e">
+        <f>AVERAGE(L3:N3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4">
@@ -659,7 +788,7 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f t="shared" si="1"/>
         <v>1660964.0474436812</v>
       </c>
@@ -672,7 +801,7 @@
       <c r="H4">
         <v>40640.516863999997</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <f t="shared" si="2"/>
         <v>40615.688874666666</v>
       </c>
@@ -680,16 +809,20 @@
         <f t="shared" si="3"/>
         <v>4.0615688874666666E-6</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <f t="shared" si="4"/>
         <v>2.445308129166103E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O4" s="3" t="e">
+        <f>AVERAGE(L4:N4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -699,14 +832,14 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F5">
         <v>4180017.9870719998</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <f t="shared" si="2"/>
         <v>4180017.9870719998</v>
       </c>
@@ -714,16 +847,20 @@
         <f t="shared" si="3"/>
         <v>4.1800179870719994E-6</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <f t="shared" si="4"/>
         <v>0.2097184660872746</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O5" s="3" t="e">
+        <f>AVERAGE(L5:N5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6">
@@ -733,11 +870,11 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I6" t="e">
+      <c r="I6" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -745,16 +882,20 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" t="e">
+      <c r="K6" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O6" s="3" t="e">
+        <f>AVERAGE(L6:N6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7">
@@ -764,7 +905,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>9965.7842846620879</v>
       </c>
@@ -777,7 +918,7 @@
       <c r="H7">
         <v>6.5930239999999998</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f t="shared" si="2"/>
         <v>6.6158080000000004</v>
       </c>
@@ -785,16 +926,20 @@
         <f t="shared" si="3"/>
         <v>6.6158080000000005E-6</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f t="shared" si="4"/>
         <v>6.6385221785124403E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O7" s="3" t="e">
+        <f>AVERAGE(L7:N7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8">
@@ -804,7 +949,7 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>132877.1237954945</v>
       </c>
@@ -817,7 +962,7 @@
       <c r="H8">
         <v>375.37894399999999</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f t="shared" si="2"/>
         <v>355.29258666666669</v>
       </c>
@@ -825,16 +970,20 @@
         <f t="shared" si="3"/>
         <v>3.5529258666666669E-6</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <f t="shared" si="4"/>
         <v>2.6738431455927835E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O8" s="3" t="e">
+        <f>AVERAGE(L8:N8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9">
@@ -844,7 +993,7 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>1660964.0474436812</v>
       </c>
@@ -857,7 +1006,7 @@
       <c r="H9">
         <v>34195.345152000002</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f t="shared" si="2"/>
         <v>34164.141397333333</v>
       </c>
@@ -865,16 +1014,20 @@
         <f t="shared" si="3"/>
         <v>3.4164141397333333E-6</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f t="shared" si="4"/>
         <v>2.0568862673405786E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O9" s="3" t="e">
+        <f>AVERAGE(L9:N9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10">
@@ -884,11 +1037,11 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>19931568.569324173</v>
       </c>
-      <c r="I10" t="e">
+      <c r="I10" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -896,16 +1049,20 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" t="e">
+      <c r="K10" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O10" s="3" t="e">
+        <f>AVERAGE(L10:N10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11">
@@ -915,11 +1072,11 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I11" t="e">
+      <c r="I11" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -927,16 +1084,20 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O11" s="3" t="e">
+        <f>AVERAGE(L11:N11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C12">
@@ -946,7 +1107,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>9965.7842846620879</v>
       </c>
@@ -959,7 +1120,7 @@
       <c r="H12">
         <v>3.047936</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <f t="shared" si="2"/>
         <v>3.0576640000000004</v>
       </c>
@@ -967,16 +1128,20 @@
         <f t="shared" si="3"/>
         <v>3.0576640000000002E-6</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <f t="shared" si="4"/>
         <v>3.068161935539705E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O12" s="3" t="e">
+        <f>AVERAGE(L12:N12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C13">
@@ -986,7 +1151,7 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>132877.1237954945</v>
       </c>
@@ -999,7 +1164,7 @@
       <c r="H13">
         <v>7.556864</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <f t="shared" si="2"/>
         <v>7.574869333333333</v>
       </c>
@@ -1007,16 +1172,20 @@
         <f t="shared" si="3"/>
         <v>7.5748693333333336E-8</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <f t="shared" si="4"/>
         <v>5.7006572064213934E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O13" s="3" t="e">
+        <f>AVERAGE(L13:N13)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C14">
@@ -1026,7 +1195,7 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>1660964.0474436812</v>
       </c>
@@ -1039,7 +1208,7 @@
       <c r="H14">
         <v>58.096896000000001</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <f t="shared" si="2"/>
         <v>58.099199999999996</v>
       </c>
@@ -1047,16 +1216,20 @@
         <f t="shared" si="3"/>
         <v>5.8099199999999997E-9</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <f t="shared" si="4"/>
         <v>3.4979203848161548E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O14" s="3" t="e">
+        <f>AVERAGE(L14:N14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C15">
@@ -1066,7 +1239,7 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>19931568.569324173</v>
       </c>
@@ -1079,7 +1252,7 @@
       <c r="H15">
         <v>620.41395199999999</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <f t="shared" si="2"/>
         <v>620.42623999999989</v>
       </c>
@@ -1087,16 +1260,20 @@
         <f t="shared" si="3"/>
         <v>6.2042623999999989E-10</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <f t="shared" si="4"/>
         <v>3.112781805617002E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O15" s="3" t="e">
+        <f>AVERAGE(L15:N15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16">
@@ -1106,7 +1283,7 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>232534966.64211538</v>
       </c>
@@ -1119,7 +1296,7 @@
       <c r="H16">
         <v>6961.3649919999998</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <f t="shared" si="2"/>
         <v>6974.5650346666662</v>
       </c>
@@ -1127,16 +1304,20 @@
         <f t="shared" si="3"/>
         <v>6.9745650346666665E-11</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <f t="shared" si="4"/>
         <v>2.9993618316340873E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O16" s="3" t="e">
+        <f>AVERAGE(L16:N16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17">
@@ -1146,7 +1327,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>9965.7842846620879</v>
       </c>
@@ -1159,7 +1340,7 @@
       <c r="H17">
         <v>1.8060799999999999</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <f t="shared" si="2"/>
         <v>2.8520106666666667</v>
       </c>
@@ -1167,16 +1348,20 @@
         <f t="shared" si="3"/>
         <v>2.8520106666666665E-6</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <f t="shared" si="4"/>
         <v>2.8618025287343159E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O17" s="3" t="e">
+        <f>AVERAGE(L17:N17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C18">
@@ -1186,7 +1371,7 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>132877.1237954945</v>
       </c>
@@ -1199,7 +1384,7 @@
       <c r="H18">
         <v>6.1670400000000001</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <f t="shared" si="2"/>
         <v>7.8079999999999998</v>
       </c>
@@ -1207,16 +1392,20 @@
         <f t="shared" si="3"/>
         <v>7.8079999999999995E-8</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <f t="shared" si="4"/>
         <v>5.8761055153609126E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O18" s="3" t="e">
+        <f>AVERAGE(L18:N18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C19">
@@ -1226,7 +1415,7 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>1660964.0474436812</v>
       </c>
@@ -1239,7 +1428,7 @@
       <c r="H19">
         <v>34.970112</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <f t="shared" si="2"/>
         <v>33.339648000000004</v>
       </c>
@@ -1247,16 +1436,20 @@
         <f t="shared" si="3"/>
         <v>3.3339648000000002E-9</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <f t="shared" si="4"/>
         <v>2.0072468185757321E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O19" s="3" t="e">
+        <f>AVERAGE(L19:N19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C20">
@@ -1266,7 +1459,7 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>19931568.569324173</v>
       </c>
@@ -1279,7 +1472,7 @@
       <c r="H20">
         <v>350.03008</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <f t="shared" si="2"/>
         <v>346.64797866666663</v>
       </c>
@@ -1287,16 +1480,20 @@
         <f t="shared" si="3"/>
         <v>3.4664797866666662E-10</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <f t="shared" si="4"/>
         <v>1.7391906585825752E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O20" s="3" t="e">
+        <f>AVERAGE(L20:N20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C21">
@@ -1306,7 +1503,7 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>232534966.64211538</v>
       </c>
@@ -1319,7 +1516,7 @@
       <c r="H21">
         <v>3991.6108800000002</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <f t="shared" si="2"/>
         <v>4055.4723840000001</v>
       </c>
@@ -1327,16 +1524,20 @@
         <f t="shared" si="3"/>
         <v>4.0554723840000003E-11</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <f t="shared" si="4"/>
         <v>1.7440269059584507E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O21" s="3" t="e">
+        <f>AVERAGE(L21:N21)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C22">
@@ -1346,7 +1547,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>9965.7842846620879</v>
       </c>
@@ -1359,7 +1560,7 @@
       <c r="H22">
         <v>11.235072000000001</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <f t="shared" si="2"/>
         <v>13.022037333333335</v>
       </c>
@@ -1367,16 +1568,20 @@
         <f t="shared" si="3"/>
         <v>1.3022037333333336E-5</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <f t="shared" si="4"/>
         <v>1.3066746139965117E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O22" s="3" t="e">
+        <f>AVERAGE(L22:N22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23">
@@ -1386,7 +1591,7 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>132877.1237954945</v>
       </c>
@@ -1399,7 +1604,7 @@
       <c r="H23">
         <v>322.92787199999998</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <f t="shared" si="2"/>
         <v>327.66097066666663</v>
       </c>
@@ -1407,16 +1612,20 @@
         <f t="shared" si="3"/>
         <v>3.2766097066666661E-6</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <f t="shared" si="4"/>
         <v>2.465894514476063E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O23" s="3" t="e">
+        <f>AVERAGE(L23:N23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C24">
@@ -1426,7 +1635,7 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>1660964.0474436812</v>
       </c>
@@ -1439,7 +1648,7 @@
       <c r="H24">
         <v>31621.054208000001</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <f t="shared" si="2"/>
         <v>31747.189077333333</v>
       </c>
@@ -1447,16 +1656,20 @@
         <f t="shared" si="3"/>
         <v>3.1747189077333331E-6</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <f t="shared" si="4"/>
         <v>1.9113712380586487E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O24" s="3" t="e">
+        <f>AVERAGE(L24:N24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25">
@@ -1466,7 +1679,7 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>19931568.569324173</v>
       </c>
@@ -1479,7 +1692,7 @@
       <c r="H25">
         <v>3334050.3088639998</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <f t="shared" si="2"/>
         <v>3305086.5800533332</v>
       </c>
@@ -1487,16 +1700,20 @@
         <f t="shared" si="3"/>
         <v>3.3050865800533334E-6</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <f t="shared" si="4"/>
         <v>0.16582169981042288</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O25" s="3" t="e">
+        <f>AVERAGE(L25:N25)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C26">
@@ -1506,11 +1723,11 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <f t="shared" si="1"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I26" t="e">
+      <c r="I26" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1518,16 +1735,20 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" t="e">
+      <c r="K26" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O26" s="3" t="e">
+        <f>AVERAGE(L26:N26)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C27">
@@ -1537,7 +1758,7 @@
         <f>C27^2</f>
         <v>1000000</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <f>C27 * LOG(C27, 2)</f>
         <v>9965.7842846620879</v>
       </c>
@@ -1550,7 +1771,7 @@
       <c r="H27">
         <v>4.1390039999999999</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <f t="shared" si="2"/>
         <v>4.1313676666666668</v>
       </c>
@@ -1558,16 +1779,20 @@
         <f t="shared" si="3"/>
         <v>4.1313676666666668E-6</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <f t="shared" si="4"/>
         <v>4.1455519692765955E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O27" s="3" t="e">
+        <f>AVERAGE(L27:N27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C28">
@@ -1577,7 +1802,7 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <f t="shared" ref="E28:E51" si="5">C28 * LOG(C28, 2)</f>
         <v>132877.1237954945</v>
       </c>
@@ -1590,7 +1815,7 @@
       <c r="H28">
         <v>134.790627</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <f t="shared" si="2"/>
         <v>134.97624399999998</v>
       </c>
@@ -1598,16 +1823,20 @@
         <f t="shared" si="3"/>
         <v>1.3497624399999999E-6</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <f t="shared" si="4"/>
         <v>1.0157974536515115E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O28" s="3" t="e">
+        <f>AVERAGE(L28:N28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C29">
@@ -1617,7 +1846,7 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <f t="shared" si="5"/>
         <v>1660964.0474436812</v>
       </c>
@@ -1630,7 +1859,7 @@
       <c r="H29">
         <v>13109.891970000001</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <f t="shared" si="2"/>
         <v>13093.957378999999</v>
       </c>
@@ -1638,16 +1867,20 @@
         <f t="shared" si="3"/>
         <v>1.3093957379E-6</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <f t="shared" si="4"/>
         <v>7.8833478660494481E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O29" s="3" t="e">
+        <f>AVERAGE(L29:N29)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C30">
@@ -1657,14 +1890,14 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <f t="shared" si="5"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F30">
         <v>1336655.5011179999</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <f t="shared" si="2"/>
         <v>1336655.5011179999</v>
       </c>
@@ -1672,16 +1905,20 @@
         <f t="shared" si="3"/>
         <v>1.3366555011179998E-6</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <f t="shared" si="4"/>
         <v>6.7062233284298028E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O30" s="3" t="e">
+        <f>AVERAGE(L30:N30)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31">
@@ -1691,11 +1928,11 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <f t="shared" si="5"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I31" t="e">
+      <c r="I31" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1703,16 +1940,20 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" t="e">
+      <c r="K31" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O31" s="3" t="e">
+        <f>AVERAGE(L31:N31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C32">
@@ -1722,7 +1963,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <f t="shared" si="5"/>
         <v>9965.7842846620879</v>
       </c>
@@ -1735,7 +1976,7 @@
       <c r="H32">
         <v>2.8373020000000002</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <f t="shared" si="2"/>
         <v>2.870174</v>
       </c>
@@ -1743,16 +1984,20 @@
         <f t="shared" si="3"/>
         <v>2.8701740000000002E-6</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <f t="shared" si="4"/>
         <v>2.8800282225829052E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O32" s="3" t="e">
+        <f>AVERAGE(L32:N32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C33">
@@ -1762,7 +2007,7 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <f t="shared" si="5"/>
         <v>132877.1237954945</v>
       </c>
@@ -1775,7 +2020,7 @@
       <c r="H33">
         <v>188.01398</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <f t="shared" si="2"/>
         <v>187.66765999999998</v>
       </c>
@@ -1783,16 +2028,20 @@
         <f t="shared" si="3"/>
         <v>1.8766765999999998E-6</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <f t="shared" si="4"/>
         <v>1.4123398719017373E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O33" s="3" t="e">
+        <f>AVERAGE(L33:N33)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C34">
@@ -1802,7 +2051,7 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <f t="shared" si="5"/>
         <v>1660964.0474436812</v>
       </c>
@@ -1815,7 +2064,7 @@
       <c r="H34">
         <v>18760.222179</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <f t="shared" si="2"/>
         <v>18757.945143666668</v>
       </c>
@@ -1823,16 +2072,20 @@
         <f t="shared" si="3"/>
         <v>1.8757945143666667E-6</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <f t="shared" si="4"/>
         <v>1.1293408290526349E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O34" s="3" t="e">
+        <f>AVERAGE(L34:N34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C35">
@@ -1842,11 +2095,11 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <f t="shared" si="5"/>
         <v>19931568.569324173</v>
       </c>
-      <c r="I35" t="e">
+      <c r="I35" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1854,16 +2107,20 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" t="e">
+      <c r="K35" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O35" s="3" t="e">
+        <f>AVERAGE(L35:N35)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C36">
@@ -1873,11 +2130,11 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <f t="shared" si="5"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I36" t="e">
+      <c r="I36" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -1885,16 +2142,20 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" t="e">
+      <c r="K36" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O36" s="3" t="e">
+        <f>AVERAGE(L36:N36)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C37">
@@ -1904,7 +2165,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <f t="shared" si="5"/>
         <v>9965.7842846620879</v>
       </c>
@@ -1917,7 +2178,7 @@
       <c r="H37">
         <v>2.3500190000000001</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <f t="shared" si="2"/>
         <v>2.340614</v>
       </c>
@@ -1925,16 +2186,20 @@
         <f t="shared" si="3"/>
         <v>2.3406140000000001E-6</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <f t="shared" si="4"/>
         <v>2.3486500742368453E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O37" s="3" t="e">
+        <f>AVERAGE(L37:N37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C38">
@@ -1944,7 +2209,7 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <f t="shared" si="5"/>
         <v>132877.1237954945</v>
       </c>
@@ -1957,7 +2222,7 @@
       <c r="H38">
         <v>4.136908</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <f t="shared" si="2"/>
         <v>4.2159683333333335</v>
       </c>
@@ -1965,16 +2230,20 @@
         <f t="shared" si="3"/>
         <v>4.2159683333333336E-8</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <f t="shared" si="4"/>
         <v>3.1728323227570386E-5</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O38" s="3" t="e">
+        <f>AVERAGE(L38:N38)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C39">
@@ -1984,7 +2253,7 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <f t="shared" si="5"/>
         <v>1660964.0474436812</v>
       </c>
@@ -1997,7 +2266,7 @@
       <c r="H39">
         <v>33.489311999999998</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <f t="shared" si="2"/>
         <v>33.47625166666667</v>
       </c>
@@ -2005,16 +2274,20 @@
         <f t="shared" si="3"/>
         <v>3.347625166666667E-9</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <f t="shared" si="4"/>
         <v>2.0154711788126023E-5</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O39" s="3" t="e">
+        <f>AVERAGE(L39:N39)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C40">
@@ -2024,7 +2297,7 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <f t="shared" si="5"/>
         <v>19931568.569324173</v>
       </c>
@@ -2037,7 +2310,7 @@
       <c r="H40">
         <v>371.21142500000002</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <f t="shared" si="2"/>
         <v>373.82435033333331</v>
       </c>
@@ -2045,16 +2318,20 @@
         <f t="shared" si="3"/>
         <v>3.7382435033333331E-10</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <f t="shared" si="4"/>
         <v>1.8755390426655655E-5</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O40" s="3" t="e">
+        <f>AVERAGE(L40:N40)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C41">
@@ -2064,7 +2341,7 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <f t="shared" si="5"/>
         <v>232534966.64211538</v>
       </c>
@@ -2077,7 +2354,7 @@
       <c r="H41">
         <v>4280.7752099999998</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <f t="shared" si="2"/>
         <v>4260.6625749999994</v>
       </c>
@@ -2085,16 +2362,20 @@
         <f t="shared" si="3"/>
         <v>4.2606625749999994E-11</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <f t="shared" si="4"/>
         <v>1.8322674806827667E-5</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O41" s="3" t="e">
+        <f>AVERAGE(L41:N41)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C42">
@@ -2104,7 +2385,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <f t="shared" si="5"/>
         <v>9965.7842846620879</v>
       </c>
@@ -2117,7 +2398,7 @@
       <c r="H42">
         <v>0.68290799999999996</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <f t="shared" si="2"/>
         <v>0.63190033333333329</v>
       </c>
@@ -2125,16 +2406,20 @@
         <f t="shared" si="3"/>
         <v>6.3190033333333328E-7</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <f t="shared" si="4"/>
         <v>6.3406984867800522E-5</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O42" s="3" t="e">
+        <f>AVERAGE(L42:N42)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C43">
@@ -2144,7 +2429,7 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <f t="shared" si="5"/>
         <v>132877.1237954945</v>
       </c>
@@ -2157,7 +2442,7 @@
       <c r="H43">
         <v>2.452197</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <f t="shared" si="2"/>
         <v>2.8170009999999999</v>
       </c>
@@ -2165,16 +2450,20 @@
         <f t="shared" si="3"/>
         <v>2.817001E-8</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <f t="shared" si="4"/>
         <v>2.1200044970385767E-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O43" s="3" t="e">
+        <f>AVERAGE(L43:N43)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C44">
@@ -2184,7 +2473,7 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <f t="shared" si="5"/>
         <v>1660964.0474436812</v>
       </c>
@@ -2197,7 +2486,7 @@
       <c r="H44">
         <v>17.263856000000001</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <f t="shared" si="2"/>
         <v>17.485508999999997</v>
       </c>
@@ -2205,16 +2494,20 @@
         <f t="shared" si="3"/>
         <v>1.7485508999999996E-9</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <f t="shared" si="4"/>
         <v>1.0527325396905006E-5</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O44" s="3" t="e">
+        <f>AVERAGE(L44:N44)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C45">
@@ -2224,7 +2517,7 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <f t="shared" si="5"/>
         <v>19931568.569324173</v>
       </c>
@@ -2237,7 +2530,7 @@
       <c r="H45">
         <v>185.92921799999999</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <f t="shared" si="2"/>
         <v>184.47335266666664</v>
       </c>
@@ -2245,16 +2538,20 @@
         <f t="shared" si="3"/>
         <v>1.8447335266666663E-10</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <f t="shared" si="4"/>
         <v>9.2553354255611231E-6</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O45" s="3" t="e">
+        <f>AVERAGE(L45:N45)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C46">
@@ -2264,7 +2561,7 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <f t="shared" si="5"/>
         <v>232534966.64211538</v>
       </c>
@@ -2277,7 +2574,7 @@
       <c r="H46">
         <v>2127.986727</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <f t="shared" si="2"/>
         <v>2088.2591456666664</v>
       </c>
@@ -2285,16 +2582,20 @@
         <f t="shared" si="3"/>
         <v>2.0882591456666664E-11</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <f t="shared" si="4"/>
         <v>8.9804091652186511E-6</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O46" s="3" t="e">
+        <f>AVERAGE(L46:N46)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C47">
@@ -2304,7 +2605,7 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <f t="shared" si="5"/>
         <v>9965.7842846620879</v>
       </c>
@@ -2317,7 +2618,7 @@
       <c r="H47">
         <v>4.7899250000000002</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <f t="shared" si="2"/>
         <v>4.7810079999999999</v>
       </c>
@@ -2325,16 +2626,20 @@
         <f t="shared" si="3"/>
         <v>4.7810079999999998E-6</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <f t="shared" si="4"/>
         <v>4.7974227250315309E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O47" s="3" t="e">
+        <f>AVERAGE(L47:N47)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C48">
@@ -2344,7 +2649,7 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <f t="shared" si="5"/>
         <v>132877.1237954945</v>
       </c>
@@ -2357,7 +2662,7 @@
       <c r="H48">
         <v>151.60509200000001</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <f t="shared" si="2"/>
         <v>150.86966366666667</v>
       </c>
@@ -2365,16 +2670,20 @@
         <f t="shared" si="3"/>
         <v>1.5086966366666667E-6</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <f t="shared" si="4"/>
         <v>1.1354073549850743E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O48" s="3" t="e">
+        <f>AVERAGE(L48:N48)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C49">
@@ -2384,7 +2693,7 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <f t="shared" si="5"/>
         <v>1660964.0474436812</v>
       </c>
@@ -2397,7 +2706,7 @@
       <c r="H49">
         <v>12408.938706000001</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <f t="shared" si="2"/>
         <v>12388.020241666667</v>
       </c>
@@ -2405,16 +2714,20 @@
         <f t="shared" si="3"/>
         <v>1.2388020241666667E-6</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <f t="shared" si="4"/>
         <v>7.4583313592684565E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O49" s="3" t="e">
+        <f>AVERAGE(L49:N49)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C50">
@@ -2424,7 +2737,7 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <f t="shared" si="5"/>
         <v>19931568.569324173</v>
       </c>
@@ -2437,7 +2750,7 @@
       <c r="H50">
         <v>1299054.8134610001</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <f>AVERAGE(F50:H50)</f>
         <v>1284286.1488913333</v>
       </c>
@@ -2445,16 +2758,20 @@
         <f t="shared" si="3"/>
         <v>1.2842861488913333E-6</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <f t="shared" si="4"/>
         <v>6.4434775638678193E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O50" s="3" t="e">
+        <f>AVERAGE(L50:N50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C51">
@@ -2464,11 +2781,11 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <f t="shared" si="5"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I51" t="e">
+      <c r="I51" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -2476,16 +2793,20 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" t="e">
+      <c r="K51" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O51" s="3" t="e">
+        <f>AVERAGE(L51:N51)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C52">
@@ -2495,28 +2816,32 @@
         <f>C52^2</f>
         <v>1000000</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <f>C52 * LOG(C52, 2)</f>
         <v>9965.7842846620879</v>
       </c>
-      <c r="I52" t="e">
-        <f t="shared" ref="I52:I101" si="6">AVERAGE(F52:H52)</f>
+      <c r="I52" s="3" t="e">
+        <f t="shared" ref="I52:J111" si="6">AVERAGE(F52:H52)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J52" t="e">
         <f t="shared" ref="J52:J101" si="7">I52/D52</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" t="e">
-        <f t="shared" ref="K52:K101" si="8">I52/E52</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="3" t="e">
+        <f t="shared" ref="K52:K111" si="8">I52/E52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" s="3" t="e">
+        <f>AVERAGE(L52:N52)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C53">
@@ -2526,11 +2851,11 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <f t="shared" ref="E53:E76" si="9">C53 * LOG(C53, 2)</f>
         <v>132877.1237954945</v>
       </c>
-      <c r="I53" t="e">
+      <c r="I53" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2538,16 +2863,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K53" t="e">
+      <c r="K53" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O53" s="3" t="e">
+        <f>AVERAGE(L53:N53)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C54">
@@ -2557,11 +2886,11 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <f t="shared" si="9"/>
         <v>1660964.0474436812</v>
       </c>
-      <c r="I54" t="e">
+      <c r="I54" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2569,16 +2898,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K54" t="e">
+      <c r="K54" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O54" s="3" t="e">
+        <f>AVERAGE(L54:N54)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C55">
@@ -2588,11 +2921,11 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <f t="shared" si="9"/>
         <v>19931568.569324173</v>
       </c>
-      <c r="I55" t="e">
+      <c r="I55" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2600,16 +2933,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K55" t="e">
+      <c r="K55" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O55" s="3" t="e">
+        <f>AVERAGE(L55:N55)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C56">
@@ -2619,11 +2956,11 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <f t="shared" si="9"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I56" t="e">
+      <c r="I56" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2631,16 +2968,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K56" t="e">
+      <c r="K56" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O56" s="3" t="e">
+        <f>AVERAGE(L56:N56)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C57">
@@ -2650,11 +2991,11 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <f t="shared" si="9"/>
         <v>9965.7842846620879</v>
       </c>
-      <c r="I57" t="e">
+      <c r="I57" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2662,16 +3003,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K57" t="e">
+      <c r="K57" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O57" s="3" t="e">
+        <f>AVERAGE(L57:N57)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C58">
@@ -2681,11 +3026,11 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <f t="shared" si="9"/>
         <v>132877.1237954945</v>
       </c>
-      <c r="I58" t="e">
+      <c r="I58" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2693,16 +3038,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K58" t="e">
+      <c r="K58" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O58" s="3" t="e">
+        <f>AVERAGE(L58:N58)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C59">
@@ -2712,11 +3061,11 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <f t="shared" si="9"/>
         <v>1660964.0474436812</v>
       </c>
-      <c r="I59" t="e">
+      <c r="I59" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2724,16 +3073,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K59" t="e">
+      <c r="K59" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O59" s="3" t="e">
+        <f>AVERAGE(L59:N59)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C60">
@@ -2743,11 +3096,11 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <f t="shared" si="9"/>
         <v>19931568.569324173</v>
       </c>
-      <c r="I60" t="e">
+      <c r="I60" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2755,16 +3108,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K60" t="e">
+      <c r="K60" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O60" s="3" t="e">
+        <f>AVERAGE(L60:N60)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C61">
@@ -2774,11 +3131,11 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <f t="shared" si="9"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I61" t="e">
+      <c r="I61" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2786,16 +3143,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K61" t="e">
+      <c r="K61" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O61" s="3" t="e">
+        <f>AVERAGE(L61:N61)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C62">
@@ -2805,11 +3166,11 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <f t="shared" si="9"/>
         <v>9965.7842846620879</v>
       </c>
-      <c r="I62" t="e">
+      <c r="I62" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2817,16 +3178,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K62" t="e">
+      <c r="K62" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O62" s="3" t="e">
+        <f>AVERAGE(L62:N62)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C63">
@@ -2836,11 +3201,11 @@
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <f t="shared" si="9"/>
         <v>132877.1237954945</v>
       </c>
-      <c r="I63" t="e">
+      <c r="I63" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2848,16 +3213,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K63" t="e">
+      <c r="K63" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O63" s="3" t="e">
+        <f>AVERAGE(L63:N63)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C64">
@@ -2867,11 +3236,11 @@
         <f t="shared" si="0"/>
         <v>10000000000</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <f t="shared" si="9"/>
         <v>1660964.0474436812</v>
       </c>
-      <c r="I64" t="e">
+      <c r="I64" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2879,16 +3248,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K64" t="e">
+      <c r="K64" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O64" s="3" t="e">
+        <f>AVERAGE(L64:N64)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C65">
@@ -2898,11 +3271,11 @@
         <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <f t="shared" si="9"/>
         <v>19931568.569324173</v>
       </c>
-      <c r="I65" t="e">
+      <c r="I65" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2910,16 +3283,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K65" t="e">
+      <c r="K65" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O65" s="3" t="e">
+        <f>AVERAGE(L65:N65)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C66">
@@ -2929,11 +3306,11 @@
         <f t="shared" si="0"/>
         <v>100000000000000</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <f t="shared" si="9"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I66" t="e">
+      <c r="I66" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2941,16 +3318,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K66" t="e">
+      <c r="K66" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O66" s="3" t="e">
+        <f>AVERAGE(L66:N66)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C67">
@@ -2960,11 +3341,11 @@
         <f t="shared" ref="D67:D76" si="10">C67^2</f>
         <v>1000000</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <f t="shared" si="9"/>
         <v>9965.7842846620879</v>
       </c>
-      <c r="I67" t="e">
+      <c r="I67" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -2972,16 +3353,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K67" t="e">
+      <c r="K67" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O67" s="3" t="e">
+        <f>AVERAGE(L67:N67)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C68">
@@ -2991,11 +3376,11 @@
         <f t="shared" si="10"/>
         <v>100000000</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <f t="shared" si="9"/>
         <v>132877.1237954945</v>
       </c>
-      <c r="I68" t="e">
+      <c r="I68" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3003,16 +3388,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K68" t="e">
+      <c r="K68" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O68" s="3" t="e">
+        <f>AVERAGE(L68:N68)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C69">
@@ -3022,11 +3411,11 @@
         <f t="shared" si="10"/>
         <v>10000000000</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <f t="shared" si="9"/>
         <v>1660964.0474436812</v>
       </c>
-      <c r="I69" t="e">
+      <c r="I69" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3034,16 +3423,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K69" t="e">
+      <c r="K69" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O69" s="3" t="e">
+        <f>AVERAGE(L69:N69)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C70">
@@ -3053,11 +3446,11 @@
         <f t="shared" si="10"/>
         <v>1000000000000</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <f t="shared" si="9"/>
         <v>19931568.569324173</v>
       </c>
-      <c r="I70" t="e">
+      <c r="I70" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3065,16 +3458,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K70" t="e">
+      <c r="K70" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O70" s="3" t="e">
+        <f>AVERAGE(L70:N70)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C71">
@@ -3084,11 +3481,11 @@
         <f t="shared" si="10"/>
         <v>100000000000000</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <f t="shared" si="9"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I71" t="e">
+      <c r="I71" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3096,16 +3493,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K71" t="e">
+      <c r="K71" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O71" s="3" t="e">
+        <f>AVERAGE(L71:N71)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C72">
@@ -3115,11 +3516,11 @@
         <f t="shared" si="10"/>
         <v>1000000</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <f t="shared" si="9"/>
         <v>9965.7842846620879</v>
       </c>
-      <c r="I72" t="e">
+      <c r="I72" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3127,16 +3528,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K72" t="e">
+      <c r="K72" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O72" s="3" t="e">
+        <f>AVERAGE(L72:N72)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C73">
@@ -3146,11 +3551,11 @@
         <f t="shared" si="10"/>
         <v>100000000</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <f t="shared" si="9"/>
         <v>132877.1237954945</v>
       </c>
-      <c r="I73" t="e">
+      <c r="I73" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3158,16 +3563,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K73" t="e">
+      <c r="K73" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O73" s="3" t="e">
+        <f>AVERAGE(L73:N73)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C74">
@@ -3177,11 +3586,11 @@
         <f t="shared" si="10"/>
         <v>10000000000</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <f t="shared" si="9"/>
         <v>1660964.0474436812</v>
       </c>
-      <c r="I74" t="e">
+      <c r="I74" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3189,16 +3598,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K74" t="e">
+      <c r="K74" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O74" s="3" t="e">
+        <f>AVERAGE(L74:N74)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C75">
@@ -3208,11 +3621,11 @@
         <f t="shared" si="10"/>
         <v>1000000000000</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <f t="shared" si="9"/>
         <v>19931568.569324173</v>
       </c>
-      <c r="I75" t="e">
+      <c r="I75" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3220,16 +3633,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K75" t="e">
+      <c r="K75" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O75" s="3" t="e">
+        <f>AVERAGE(L75:N75)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C76">
@@ -3239,11 +3656,11 @@
         <f t="shared" si="10"/>
         <v>100000000000000</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <f t="shared" si="9"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I76" t="e">
+      <c r="I76" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3251,16 +3668,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K76" t="e">
+      <c r="K76" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O76" s="3" t="e">
+        <f>AVERAGE(L76:N76)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C77">
@@ -3270,7 +3691,7 @@
         <f>C77^2</f>
         <v>1000000</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <f>C77 * LOG(C77, 2)</f>
         <v>9965.7842846620879</v>
       </c>
@@ -3283,7 +3704,7 @@
       <c r="H77">
         <v>6.9670339999999999</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="3">
         <f t="shared" si="6"/>
         <v>6.8328506666666664</v>
       </c>
@@ -3291,27 +3712,31 @@
         <f t="shared" si="7"/>
         <v>6.8328506666666664E-6</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="3">
         <f t="shared" si="8"/>
         <v>6.8563100218643248E-4</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O77" s="3" t="e">
+        <f>AVERAGE(L77:N77)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C78">
         <v>10000</v>
       </c>
       <c r="D78">
-        <f t="shared" ref="D78:D101" si="11">C78^2</f>
+        <f t="shared" ref="D78:D111" si="11">C78^2</f>
         <v>100000000</v>
       </c>
-      <c r="E78">
-        <f t="shared" ref="E78:E101" si="12">C78 * LOG(C78, 2)</f>
+      <c r="E78" s="3">
+        <f t="shared" ref="E78:E111" si="12">C78 * LOG(C78, 2)</f>
         <v>132877.1237954945</v>
       </c>
       <c r="F78">
@@ -3323,7 +3748,7 @@
       <c r="H78">
         <v>45.468547999999998</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="3">
         <f t="shared" si="6"/>
         <v>62.375342666666661</v>
       </c>
@@ -3331,16 +3756,20 @@
         <f t="shared" si="7"/>
         <v>6.237534266666666E-7</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
         <f t="shared" si="8"/>
         <v>4.6942122831215014E-4</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O78" s="3" t="e">
+        <f>AVERAGE(L78:N78)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C79">
@@ -3350,7 +3779,7 @@
         <f t="shared" si="11"/>
         <v>10000000000</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <f t="shared" si="12"/>
         <v>1660964.0474436812</v>
       </c>
@@ -3363,7 +3792,7 @@
       <c r="H79">
         <v>5324.6422830000001</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <f t="shared" si="6"/>
         <v>5243.095401333333</v>
       </c>
@@ -3371,16 +3800,20 @@
         <f t="shared" si="7"/>
         <v>5.2430954013333335E-7</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
         <f t="shared" si="8"/>
         <v>3.156657971858426E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O79" s="3" t="e">
+        <f>AVERAGE(L79:N79)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C80">
@@ -3390,7 +3823,7 @@
         <f t="shared" si="11"/>
         <v>1000000000000</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <f t="shared" si="12"/>
         <v>19931568.569324173</v>
       </c>
@@ -3403,7 +3836,7 @@
       <c r="H80">
         <v>379114.815902</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="3">
         <f t="shared" si="6"/>
         <v>471734.30010266666</v>
       </c>
@@ -3411,16 +3844,20 @@
         <f t="shared" si="7"/>
         <v>4.7173430010266668E-7</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="3">
         <f t="shared" si="8"/>
         <v>2.3667695719076159E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O80" s="3" t="e">
+        <f>AVERAGE(L80:N80)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C81">
@@ -3430,11 +3867,11 @@
         <f t="shared" si="11"/>
         <v>100000000000000</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <f t="shared" si="12"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I81" t="e">
+      <c r="I81" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3442,16 +3879,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K81" t="e">
+      <c r="K81" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O81" s="3" t="e">
+        <f>AVERAGE(L81:N81)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C82">
@@ -3461,7 +3902,7 @@
         <f t="shared" si="11"/>
         <v>1000000</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <f t="shared" si="12"/>
         <v>9965.7842846620879</v>
       </c>
@@ -3474,7 +3915,7 @@
       <c r="H82">
         <v>4.0925830000000003</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="3">
         <f t="shared" si="6"/>
         <v>4.1440673333333331</v>
       </c>
@@ -3482,16 +3923,20 @@
         <f t="shared" si="7"/>
         <v>4.1440673333333327E-6</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
         <f t="shared" si="8"/>
         <v>4.1582952379485975E-4</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O82" s="3" t="e">
+        <f>AVERAGE(L82:N82)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C83">
@@ -3501,7 +3946,7 @@
         <f t="shared" si="11"/>
         <v>100000000</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <f t="shared" si="12"/>
         <v>132877.1237954945</v>
       </c>
@@ -3514,7 +3959,7 @@
       <c r="H83">
         <v>59.304056000000003</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="3">
         <f t="shared" si="6"/>
         <v>59.91674866666667</v>
       </c>
@@ -3522,16 +3967,20 @@
         <f t="shared" si="7"/>
         <v>5.9916748666666673E-7</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="3">
         <f t="shared" si="8"/>
         <v>4.5091846478316299E-4</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O83" s="3" t="e">
+        <f>AVERAGE(L83:N83)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C84">
@@ -3541,7 +3990,7 @@
         <f t="shared" si="11"/>
         <v>10000000000</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <f t="shared" si="12"/>
         <v>1660964.0474436812</v>
       </c>
@@ -3554,7 +4003,7 @@
       <c r="H84">
         <v>5459.6343809999998</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="3">
         <f t="shared" si="6"/>
         <v>5462.850023</v>
       </c>
@@ -3562,16 +4011,20 @@
         <f t="shared" si="7"/>
         <v>5.4628500229999999E-7</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="3">
         <f t="shared" si="8"/>
         <v>3.288963437473339E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O84" s="3" t="e">
+        <f>AVERAGE(L84:N84)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C85">
@@ -3581,7 +4034,7 @@
         <f t="shared" si="11"/>
         <v>1000000000000</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <f t="shared" si="12"/>
         <v>19931568.569324173</v>
       </c>
@@ -3594,7 +4047,7 @@
       <c r="H85">
         <v>992614</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="3">
         <f t="shared" si="6"/>
         <v>845519.20947366673</v>
       </c>
@@ -3602,16 +4055,20 @@
         <f t="shared" si="7"/>
         <v>8.4551920947366676E-7</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="3">
         <f t="shared" si="8"/>
         <v>4.2421107326945116E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O85" s="3" t="e">
+        <f>AVERAGE(L85:N85)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C86">
@@ -3621,11 +4078,11 @@
         <f t="shared" si="11"/>
         <v>100000000000000</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <f t="shared" si="12"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I86" t="e">
+      <c r="I86" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -3633,16 +4090,20 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K86" t="e">
+      <c r="K86" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O86" s="3" t="e">
+        <f>AVERAGE(L86:N86)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C87">
@@ -3652,7 +4113,7 @@
         <f t="shared" si="11"/>
         <v>1000000</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <f t="shared" si="12"/>
         <v>9965.7842846620879</v>
       </c>
@@ -3665,7 +4126,7 @@
       <c r="H87">
         <v>1.224105</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="3">
         <f t="shared" si="6"/>
         <v>1.4286203333333332</v>
       </c>
@@ -3673,16 +4134,20 @@
         <f t="shared" si="7"/>
         <v>1.4286203333333332E-6</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
         <f t="shared" si="8"/>
         <v>1.4335252424960287E-4</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O87" s="3" t="e">
+        <f>AVERAGE(L87:N87)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C88">
@@ -3692,7 +4157,7 @@
         <f t="shared" si="11"/>
         <v>100000000</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <f t="shared" si="12"/>
         <v>132877.1237954945</v>
       </c>
@@ -3705,7 +4170,7 @@
       <c r="H88">
         <v>5.545382</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="3">
         <f t="shared" si="6"/>
         <v>5.5138086666666668</v>
       </c>
@@ -3713,16 +4178,20 @@
         <f t="shared" si="7"/>
         <v>5.5138086666666666E-8</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="3">
         <f t="shared" si="8"/>
         <v>4.1495544975467214E-5</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O88" s="3" t="e">
+        <f>AVERAGE(L88:N88)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>31</v>
-      </c>
-      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C89">
@@ -3732,7 +4201,7 @@
         <f t="shared" si="11"/>
         <v>10000000000</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <f t="shared" si="12"/>
         <v>1660964.0474436812</v>
       </c>
@@ -3745,7 +4214,7 @@
       <c r="H89">
         <v>31.834426000000001</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <f t="shared" si="6"/>
         <v>31.201964333333336</v>
       </c>
@@ -3753,16 +4222,20 @@
         <f t="shared" si="7"/>
         <v>3.1201964333333336E-9</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <f t="shared" si="8"/>
         <v>1.8785454375942061E-5</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O89" s="3" t="e">
+        <f>AVERAGE(L89:N89)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C90">
@@ -3772,7 +4245,7 @@
         <f t="shared" si="11"/>
         <v>1000000000000</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <f t="shared" si="12"/>
         <v>19931568.569324173</v>
       </c>
@@ -3785,7 +4258,7 @@
       <c r="H90">
         <v>182.49456499999999</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <f t="shared" si="6"/>
         <v>190.50707299999999</v>
       </c>
@@ -3793,16 +4266,20 @@
         <f t="shared" si="7"/>
         <v>1.9050707299999998E-10</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <f t="shared" si="8"/>
         <v>9.5580572265246248E-6</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O90" s="3" t="e">
+        <f>AVERAGE(L90:N90)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C91">
@@ -3812,7 +4289,7 @@
         <f t="shared" si="11"/>
         <v>100000000000000</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <f t="shared" si="12"/>
         <v>232534966.64211538</v>
       </c>
@@ -3825,7 +4302,7 @@
       <c r="H91">
         <v>2054.1503539999999</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <f t="shared" si="6"/>
         <v>2019.2601439999999</v>
       </c>
@@ -3833,16 +4310,20 @@
         <f t="shared" si="7"/>
         <v>2.0192601439999998E-11</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <f t="shared" si="8"/>
         <v>8.6836838913252857E-6</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O91" s="3" t="e">
+        <f>AVERAGE(L91:N91)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C92">
@@ -3852,7 +4333,7 @@
         <f t="shared" si="11"/>
         <v>1000000</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <f t="shared" si="12"/>
         <v>9965.7842846620879</v>
       </c>
@@ -3865,7 +4346,7 @@
       <c r="H92">
         <v>0.50218700000000005</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <f t="shared" si="6"/>
         <v>0.51768899999999995</v>
       </c>
@@ -3873,16 +4354,20 @@
         <f t="shared" si="7"/>
         <v>5.1768899999999994E-7</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <f t="shared" si="8"/>
         <v>5.1946639141763576E-5</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O92" s="3" t="e">
+        <f>AVERAGE(L92:N92)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C93">
@@ -3892,7 +4377,7 @@
         <f t="shared" si="11"/>
         <v>100000000</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <f t="shared" si="12"/>
         <v>132877.1237954945</v>
       </c>
@@ -3905,7 +4390,7 @@
       <c r="H93">
         <v>2.6641050000000002</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <f t="shared" si="6"/>
         <v>2.8161396666666669</v>
       </c>
@@ -3913,16 +4398,20 @@
         <f t="shared" si="7"/>
         <v>2.8161396666666668E-8</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <f t="shared" si="8"/>
         <v>2.1193562791145804E-5</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O93" s="3" t="e">
+        <f>AVERAGE(L93:N93)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C94">
@@ -3932,7 +4421,7 @@
         <f t="shared" si="11"/>
         <v>10000000000</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <f t="shared" si="12"/>
         <v>1660964.0474436812</v>
       </c>
@@ -3945,7 +4434,7 @@
       <c r="H94">
         <v>19.689796000000001</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <f t="shared" si="6"/>
         <v>18.137868666666666</v>
       </c>
@@ -3953,16 +4442,20 @@
         <f t="shared" si="7"/>
         <v>1.8137868666666666E-9</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <f t="shared" si="8"/>
         <v>1.0920085052161054E-5</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O94" s="3" t="e">
+        <f>AVERAGE(L94:N94)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C95">
@@ -3972,7 +4465,7 @@
         <f t="shared" si="11"/>
         <v>1000000000000</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <f t="shared" si="12"/>
         <v>19931568.569324173</v>
       </c>
@@ -3985,7 +4478,7 @@
       <c r="H95">
         <v>128.53663700000001</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="3">
         <f t="shared" si="6"/>
         <v>126.12611466666665</v>
       </c>
@@ -3993,16 +4486,20 @@
         <f t="shared" si="7"/>
         <v>1.2612611466666665E-10</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <f t="shared" si="8"/>
         <v>6.3279572918702429E-6</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O95" s="3" t="e">
+        <f>AVERAGE(L95:N95)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C96">
@@ -4012,7 +4509,7 @@
         <f t="shared" si="11"/>
         <v>100000000000000</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <f t="shared" si="12"/>
         <v>232534966.64211538</v>
       </c>
@@ -4025,7 +4522,7 @@
       <c r="H96">
         <v>1341.5532020000001</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="3">
         <f t="shared" si="6"/>
         <v>1309.3460116666668</v>
       </c>
@@ -4033,16 +4530,20 @@
         <f t="shared" si="7"/>
         <v>1.3093460116666667E-11</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <f t="shared" si="8"/>
         <v>5.6307489173523958E-6</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O96" s="3" t="e">
+        <f>AVERAGE(L96:N96)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>39</v>
-      </c>
-      <c r="B97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C97">
@@ -4052,7 +4553,7 @@
         <f t="shared" si="11"/>
         <v>1000000</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <f t="shared" si="12"/>
         <v>9965.7842846620879</v>
       </c>
@@ -4065,7 +4566,7 @@
       <c r="H97">
         <v>6.5924209999999999</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="3">
         <f t="shared" si="6"/>
         <v>6.6633899999999997</v>
       </c>
@@ -4073,16 +4574,20 @@
         <f t="shared" si="7"/>
         <v>6.6633899999999997E-6</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <f t="shared" si="8"/>
         <v>6.6862675426913843E-4</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O97" s="3" t="e">
+        <f>AVERAGE(L97:N97)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C98">
@@ -4092,7 +4597,7 @@
         <f t="shared" si="11"/>
         <v>100000000</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <f t="shared" si="12"/>
         <v>132877.1237954945</v>
       </c>
@@ -4105,7 +4610,7 @@
       <c r="H98">
         <v>89.271817999999996</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <f t="shared" si="6"/>
         <v>95.108896666666666</v>
       </c>
@@ -4113,16 +4618,20 @@
         <f t="shared" si="7"/>
         <v>9.5108896666666669E-7</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <f t="shared" si="8"/>
         <v>7.1576576877931759E-4</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O98" s="3" t="e">
+        <f>AVERAGE(L98:N98)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C99">
@@ -4132,7 +4641,7 @@
         <f t="shared" si="11"/>
         <v>10000000000</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <f t="shared" si="12"/>
         <v>1660964.0474436812</v>
       </c>
@@ -4145,7 +4654,7 @@
       <c r="H99">
         <v>7661.4782619999996</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <f t="shared" si="6"/>
         <v>7694.9118339999995</v>
       </c>
@@ -4153,16 +4662,20 @@
         <f t="shared" si="7"/>
         <v>7.6949118339999997E-7</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <f t="shared" si="8"/>
         <v>4.632798552047475E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O99" s="3" t="e">
+        <f>AVERAGE(L99:N99)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>42</v>
-      </c>
-      <c r="B100" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C100">
@@ -4172,7 +4685,7 @@
         <f t="shared" si="11"/>
         <v>1000000000000</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <f t="shared" si="12"/>
         <v>19931568.569324173</v>
       </c>
@@ -4185,7 +4698,7 @@
       <c r="H100">
         <v>1278424.8696109999</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <f t="shared" si="6"/>
         <v>1040605.0924613333</v>
       </c>
@@ -4193,16 +4706,20 @@
         <f t="shared" si="7"/>
         <v>1.0406050924613332E-6</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <f t="shared" si="8"/>
         <v>5.2208891078591987E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O100" s="3" t="e">
+        <f>AVERAGE(L100:N100)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>43</v>
-      </c>
-      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C101">
@@ -4212,11 +4729,11 @@
         <f t="shared" si="11"/>
         <v>100000000000000</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <f t="shared" si="12"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I101" t="e">
+      <c r="I101" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -4224,13 +4741,1077 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K101" t="e">
+      <c r="K101" s="3" t="e">
         <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O101" s="3" t="e">
+        <f>AVERAGE(L101:N101)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>1000</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="11"/>
+        <v>1000000</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="12"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="I102" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J102" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K102" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O102" s="3" t="e">
+        <f>AVERAGE(L102:N102)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>10000</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="11"/>
+        <v>100000000</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" si="12"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="I103" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J103" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K103" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O103" s="3" t="e">
+        <f>AVERAGE(L103:N103)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>100000</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="11"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E104" s="3">
+        <f t="shared" si="12"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="I104" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J104" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K104" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O104" s="3" t="e">
+        <f>AVERAGE(L104:N104)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>1000000</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="11"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" si="12"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="I105" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J105" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K105" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O105" s="3" t="e">
+        <f>AVERAGE(L105:N105)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>10000000</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="11"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" si="12"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I106" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J106" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K106" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O106" s="3" t="e">
+        <f>AVERAGE(L106:N106)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>1000</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="11"/>
+        <v>1000000</v>
+      </c>
+      <c r="E107" s="3">
+        <f t="shared" si="12"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="I107" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J107" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K107" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O107" s="3" t="e">
+        <f>AVERAGE(L107:N107)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>10000</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="11"/>
+        <v>100000000</v>
+      </c>
+      <c r="E108" s="3">
+        <f t="shared" si="12"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="I108" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J108" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K108" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O108" s="3" t="e">
+        <f>AVERAGE(L108:N108)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>100000</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="11"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E109" s="3">
+        <f t="shared" si="12"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="I109" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J109" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K109" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O109" s="3" t="e">
+        <f>AVERAGE(L109:N109)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>1000000</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="11"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="E110" s="3">
+        <f t="shared" si="12"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="I110" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J110" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K110" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O110" s="3" t="e">
+        <f>AVERAGE(L110:N110)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>10000000</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="11"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="12"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I111" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J111" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K111" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O111" s="3" t="e">
+        <f>AVERAGE(L111:N111)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>1000</v>
+      </c>
+      <c r="D112">
+        <f t="shared" ref="D112:D121" si="13">C112^2</f>
+        <v>1000000</v>
+      </c>
+      <c r="E112" s="3">
+        <f t="shared" ref="E112:E121" si="14">C112 * LOG(C112, 2)</f>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="F112">
+        <v>1.943754</v>
+      </c>
+      <c r="G112">
+        <v>1.9248879999999999</v>
+      </c>
+      <c r="H112">
+        <v>1.9350350000000001</v>
+      </c>
+      <c r="I112" s="3">
+        <f t="shared" ref="I112:I122" si="15">AVERAGE(F112:H112)</f>
+        <v>1.9345590000000001</v>
+      </c>
+      <c r="J112">
+        <f t="shared" ref="J112:J122" si="16">I112/D112</f>
+        <v>1.934559E-6</v>
+      </c>
+      <c r="K112" s="3">
+        <f t="shared" ref="K112:K122" si="17">I112/E112</f>
+        <v>1.9412009579390527E-4</v>
+      </c>
+      <c r="L112">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M112">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="N112">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="O112" s="3">
+        <f>AVERAGE(L112:N112)</f>
+        <v>0.17466666666666666</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>10000</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="13"/>
+        <v>100000000</v>
+      </c>
+      <c r="E113" s="3">
+        <f t="shared" si="14"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="F113">
+        <v>6.9243540000000001</v>
+      </c>
+      <c r="G113">
+        <v>7.0374080000000001</v>
+      </c>
+      <c r="H113">
+        <v>7.0804390000000001</v>
+      </c>
+      <c r="I113" s="3">
+        <f t="shared" si="15"/>
+        <v>7.0140669999999998</v>
+      </c>
+      <c r="J113">
+        <f t="shared" ref="J113:J122" si="18">AVERAGE(G113:I113)</f>
+        <v>7.0439713333333343</v>
+      </c>
+      <c r="K113" s="3">
+        <f t="shared" si="17"/>
+        <v>5.2786113964921836E-5</v>
+      </c>
+      <c r="L113">
+        <v>2.089</v>
+      </c>
+      <c r="M113">
+        <v>2.085</v>
+      </c>
+      <c r="N113">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="O113" s="3">
+        <f>AVERAGE(L113:N113)</f>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>100000</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="13"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E114" s="3">
+        <f t="shared" si="14"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="F114">
+        <v>35.220018000000003</v>
+      </c>
+      <c r="G114">
+        <v>32.903601999999999</v>
+      </c>
+      <c r="H114">
+        <v>27.780306</v>
+      </c>
+      <c r="I114" s="3">
+        <f t="shared" si="15"/>
+        <v>31.967975333333332</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="18"/>
+        <v>30.883961111111109</v>
+      </c>
+      <c r="K114" s="3">
+        <f t="shared" si="17"/>
+        <v>1.9246638951959181E-5</v>
+      </c>
+      <c r="L114">
+        <v>25.465</v>
+      </c>
+      <c r="M114">
+        <v>27.873999999999999</v>
+      </c>
+      <c r="N114">
+        <v>28.038</v>
+      </c>
+      <c r="O114" s="3">
+        <f>AVERAGE(L114:N114)</f>
+        <v>27.125666666666664</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>1000000</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="13"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="E115" s="3">
+        <f t="shared" si="14"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="F115">
+        <v>154.25817000000001</v>
+      </c>
+      <c r="G115">
+        <v>158.63531599999999</v>
+      </c>
+      <c r="H115">
+        <v>153.51504800000001</v>
+      </c>
+      <c r="I115" s="3">
+        <f t="shared" si="15"/>
+        <v>155.46951133333334</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="18"/>
+        <v>155.87329177777778</v>
+      </c>
+      <c r="K115" s="3">
+        <f t="shared" si="17"/>
+        <v>7.8001643870924358E-6</v>
+      </c>
+      <c r="L115">
+        <v>298.26900000000001</v>
+      </c>
+      <c r="M115">
+        <v>305.39</v>
+      </c>
+      <c r="N115">
+        <v>302.15699999999998</v>
+      </c>
+      <c r="O115" s="3">
+        <f>AVERAGE(L115:N115)</f>
+        <v>301.93866666666668</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>10000000</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="13"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="E116" s="3">
+        <f t="shared" si="14"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="F116">
+        <v>1513.7715900000001</v>
+      </c>
+      <c r="G116">
+        <v>1481.7274170000001</v>
+      </c>
+      <c r="H116">
+        <v>1506.2237009999999</v>
+      </c>
+      <c r="I116" s="3">
+        <f t="shared" si="15"/>
+        <v>1500.5742360000002</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="18"/>
+        <v>1496.1751180000001</v>
+      </c>
+      <c r="K116" s="3">
+        <f t="shared" si="17"/>
+        <v>6.4531122250937419E-6</v>
+      </c>
+      <c r="L116">
+        <v>3428.16</v>
+      </c>
+      <c r="M116">
+        <v>3451.05</v>
+      </c>
+      <c r="N116">
+        <v>3440.26</v>
+      </c>
+      <c r="O116" s="3">
+        <f>AVERAGE(L116:N116)</f>
+        <v>3439.8233333333337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>1000</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="13"/>
+        <v>1000000</v>
+      </c>
+      <c r="E117" s="3">
+        <f t="shared" si="14"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="F117">
+        <v>0.70394900000000005</v>
+      </c>
+      <c r="G117">
+        <v>0.70909800000000001</v>
+      </c>
+      <c r="H117">
+        <v>0.81640599999999997</v>
+      </c>
+      <c r="I117" s="3">
+        <f t="shared" si="15"/>
+        <v>0.74315100000000012</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="18"/>
+        <v>0.75621833333333333</v>
+      </c>
+      <c r="K117" s="3">
+        <f t="shared" si="17"/>
+        <v>7.4570247435894432E-5</v>
+      </c>
+      <c r="L117">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="M117">
+        <v>0.18</v>
+      </c>
+      <c r="N117">
+        <v>0.115</v>
+      </c>
+      <c r="O117" s="3">
+        <f>AVERAGE(L117:N117)</f>
+        <v>0.14533333333333331</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>10000</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="13"/>
+        <v>100000000</v>
+      </c>
+      <c r="E118" s="3">
+        <f t="shared" si="14"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="F118">
+        <v>3.7100590000000002</v>
+      </c>
+      <c r="G118">
+        <v>4.4453529999999999</v>
+      </c>
+      <c r="H118">
+        <v>3.4535719999999999</v>
+      </c>
+      <c r="I118" s="3">
+        <f t="shared" si="15"/>
+        <v>3.8696613333333332</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="18"/>
+        <v>3.9228621111111113</v>
+      </c>
+      <c r="K118" s="3">
+        <f t="shared" si="17"/>
+        <v>2.9122103359860225E-5</v>
+      </c>
+      <c r="L118">
+        <v>1.581</v>
+      </c>
+      <c r="M118">
+        <v>1.345</v>
+      </c>
+      <c r="N118">
+        <v>1.365</v>
+      </c>
+      <c r="O118" s="3">
+        <f>AVERAGE(L118:N118)</f>
+        <v>1.4303333333333335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>100000</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="13"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E119" s="3">
+        <f t="shared" si="14"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="F119">
+        <v>22.625250999999999</v>
+      </c>
+      <c r="G119">
+        <v>24.434145999999998</v>
+      </c>
+      <c r="H119">
+        <v>24.616895</v>
+      </c>
+      <c r="I119" s="3">
+        <f t="shared" si="15"/>
+        <v>23.892097333333329</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="18"/>
+        <v>24.314379444444441</v>
+      </c>
+      <c r="K119" s="3">
+        <f t="shared" si="17"/>
+        <v>1.4384475913313496E-5</v>
+      </c>
+      <c r="L119">
+        <v>16.533000000000001</v>
+      </c>
+      <c r="M119">
+        <v>16.771000000000001</v>
+      </c>
+      <c r="N119">
+        <v>18.308</v>
+      </c>
+      <c r="O119" s="3">
+        <f>AVERAGE(L119:N119)</f>
+        <v>17.204000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>1000000</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="13"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="E120" s="3">
+        <f t="shared" si="14"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="F120">
+        <v>117.683325</v>
+      </c>
+      <c r="G120">
+        <v>114.48978</v>
+      </c>
+      <c r="H120">
+        <v>121.401741</v>
+      </c>
+      <c r="I120" s="3">
+        <f t="shared" si="15"/>
+        <v>117.85828199999999</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="18"/>
+        <v>117.916601</v>
+      </c>
+      <c r="K120" s="3">
+        <f t="shared" si="17"/>
+        <v>5.9131463532373785E-6</v>
+      </c>
+      <c r="L120">
+        <v>217.52199999999999</v>
+      </c>
+      <c r="M120">
+        <v>206.62799999999999</v>
+      </c>
+      <c r="N120">
+        <v>196.91</v>
+      </c>
+      <c r="O120" s="3">
+        <f>AVERAGE(L120:N120)</f>
+        <v>207.01999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
+        <v>40</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>10000000</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="13"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="E121" s="3">
+        <f t="shared" si="14"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="F121">
+        <v>1175.3422660000001</v>
+      </c>
+      <c r="G121">
+        <v>1210.1229740000001</v>
+      </c>
+      <c r="H121">
+        <v>1221.0125230000001</v>
+      </c>
+      <c r="I121" s="3">
+        <f t="shared" si="15"/>
+        <v>1202.1592543333336</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="18"/>
+        <v>1211.0982504444446</v>
+      </c>
+      <c r="K121" s="3">
+        <f t="shared" si="17"/>
+        <v>5.169799930276832E-6</v>
+      </c>
+      <c r="L121">
+        <v>2395.6999999999998</v>
+      </c>
+      <c r="M121">
+        <v>2293</v>
+      </c>
+      <c r="N121">
+        <v>2354.46</v>
+      </c>
+      <c r="O121" s="3">
+        <f>AVERAGE(L121:N121)</f>
+        <v>2347.7199999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>1000</v>
+      </c>
+      <c r="D122">
+        <f t="shared" ref="D122:D126" si="19">C122^2</f>
+        <v>1000000</v>
+      </c>
+      <c r="E122" s="3">
+        <f t="shared" ref="E122:E126" si="20">C122 * LOG(C122, 2)</f>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="I122" s="3" t="e">
+        <f t="shared" ref="I122:I126" si="21">AVERAGE(F122:H122)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J122" t="e">
+        <f t="shared" ref="J122:J126" si="22">AVERAGE(G122:I122)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K122" s="3" t="e">
+        <f t="shared" ref="K122:K126" si="23">I122/E122</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O122" s="3" t="e">
+        <f>AVERAGE(L122:N122)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>10000</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="19"/>
+        <v>100000000</v>
+      </c>
+      <c r="E123" s="3">
+        <f t="shared" si="20"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="I123" s="3" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J123" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K123" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O123" s="3" t="e">
+        <f>AVERAGE(L123:N123)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>100000</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="19"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E124" s="3">
+        <f t="shared" si="20"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="I124" s="3" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J124" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K124" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O124" s="3" t="e">
+        <f>AVERAGE(L124:N124)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>1000000</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="19"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="E125" s="3">
+        <f t="shared" si="20"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="I125" s="3" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J125" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K125" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O125" s="3" t="e">
+        <f>AVERAGE(L125:N125)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>10000000</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="19"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="E126" s="3">
+        <f t="shared" si="20"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I126" s="3" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J126" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K126" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O126" s="3" t="e">
+        <f>AVERAGE(L126:N126)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Testing/aa_writing_02.xlsx
+++ b/Testing/aa_writing_02.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="48">
   <si>
     <t>Computer</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Dell Inspiron</t>
-  </si>
-  <si>
-    <t>MacBook Pro</t>
   </si>
   <si>
     <t>ThinkPad L560</t>
@@ -608,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O126"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -656,16 +653,16 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -674,16 +671,16 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -726,7 +723,7 @@
         <v>1.1464164124293059E-3</v>
       </c>
       <c r="O2" s="3" t="e">
-        <f>AVERAGE(L2:N2)</f>
+        <f t="shared" ref="O2:O33" si="0">AVERAGE(L2:N2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -741,11 +738,11 @@
         <v>10000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">C3^2</f>
+        <f t="shared" ref="D3:D51" si="1">C3^2</f>
         <v>100000000</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E26" si="1">C3 * LOG(C3, 2)</f>
+        <f t="shared" ref="E3:E26" si="2">C3 * LOG(C3, 2)</f>
         <v>132877.1237954945</v>
       </c>
       <c r="F3">
@@ -758,19 +755,19 @@
         <v>423.20384000000001</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I51" si="2">AVERAGE(F3:H3)</f>
+        <f t="shared" ref="I3:I51" si="3">AVERAGE(F3:H3)</f>
         <v>420.93499733333329</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J51" si="3">I3/D3</f>
+        <f t="shared" ref="J3:J51" si="4">I3/D3</f>
         <v>4.2093499733333324E-6</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K51" si="4">I3/E3</f>
+        <f t="shared" ref="K3:K51" si="5">I3/E3</f>
         <v>3.1678515105517811E-3</v>
       </c>
       <c r="O3" s="3" t="e">
-        <f>AVERAGE(L3:N3)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -785,11 +782,11 @@
         <v>100000</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F4">
@@ -802,19 +799,19 @@
         <v>40640.516863999997</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40615.688874666666</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0615688874666666E-6</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.445308129166103E-2</v>
       </c>
       <c r="O4" s="3" t="e">
-        <f>AVERAGE(L4:N4)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -829,30 +826,30 @@
         <v>1000000</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F5">
         <v>4180017.9870719998</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4180017.9870719998</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1800179870719994E-6</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2097184660872746</v>
       </c>
       <c r="O5" s="3" t="e">
-        <f>AVERAGE(L5:N5)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -867,27 +864,27 @@
         <v>10000000</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="2"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I6" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="1"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I6" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="3" t="e">
-        <f>AVERAGE(L6:N6)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -902,11 +899,11 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="F7">
@@ -919,19 +916,19 @@
         <v>6.5930239999999998</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6158080000000004</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6158080000000005E-6</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6385221785124403E-4</v>
       </c>
       <c r="O7" s="3" t="e">
-        <f>AVERAGE(L7:N7)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -946,11 +943,11 @@
         <v>10000</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F8">
@@ -963,19 +960,19 @@
         <v>375.37894399999999</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>355.29258666666669</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5529258666666669E-6</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6738431455927835E-3</v>
       </c>
       <c r="O8" s="3" t="e">
-        <f>AVERAGE(L8:N8)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -990,11 +987,11 @@
         <v>100000</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F9">
@@ -1007,19 +1004,19 @@
         <v>34195.345152000002</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34164.141397333333</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4164141397333333E-6</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0568862673405786E-2</v>
       </c>
       <c r="O9" s="3" t="e">
-        <f>AVERAGE(L9:N9)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1034,27 +1031,27 @@
         <v>1000000</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="2"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="I10" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="1"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="I10" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="3" t="e">
-        <f>AVERAGE(L10:N10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1069,27 +1066,27 @@
         <v>10000000</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I11" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I11" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="3" t="e">
-        <f>AVERAGE(L11:N11)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1104,11 +1101,11 @@
         <v>1000</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="F12">
@@ -1121,19 +1118,19 @@
         <v>3.047936</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0576640000000004</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0576640000000002E-6</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.068161935539705E-4</v>
       </c>
       <c r="O12" s="3" t="e">
-        <f>AVERAGE(L12:N12)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1148,11 +1145,11 @@
         <v>10000</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F13">
@@ -1165,19 +1162,19 @@
         <v>7.556864</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.574869333333333</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5748693333333336E-8</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7006572064213934E-5</v>
       </c>
       <c r="O13" s="3" t="e">
-        <f>AVERAGE(L13:N13)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1192,11 +1189,11 @@
         <v>100000</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F14">
@@ -1209,19 +1206,19 @@
         <v>58.096896000000001</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58.099199999999996</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8099199999999997E-9</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4979203848161548E-5</v>
       </c>
       <c r="O14" s="3" t="e">
-        <f>AVERAGE(L14:N14)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1236,11 +1233,11 @@
         <v>1000000</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F15">
@@ -1253,19 +1250,19 @@
         <v>620.41395199999999</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>620.42623999999989</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2042623999999989E-10</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.112781805617002E-5</v>
       </c>
       <c r="O15" s="3" t="e">
-        <f>AVERAGE(L15:N15)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1280,11 +1277,11 @@
         <v>10000000</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000000000</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>232534966.64211538</v>
       </c>
       <c r="F16">
@@ -1297,19 +1294,19 @@
         <v>6961.3649919999998</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6974.5650346666662</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9745650346666665E-11</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9993618316340873E-5</v>
       </c>
       <c r="O16" s="3" t="e">
-        <f>AVERAGE(L16:N16)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1324,11 +1321,11 @@
         <v>1000</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="F17">
@@ -1341,19 +1338,19 @@
         <v>1.8060799999999999</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8520106666666667</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8520106666666665E-6</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8618025287343159E-4</v>
       </c>
       <c r="O17" s="3" t="e">
-        <f>AVERAGE(L17:N17)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1368,11 +1365,11 @@
         <v>10000</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F18">
@@ -1385,19 +1382,19 @@
         <v>6.1670400000000001</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8079999999999998</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8079999999999995E-8</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8761055153609126E-5</v>
       </c>
       <c r="O18" s="3" t="e">
-        <f>AVERAGE(L18:N18)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1412,11 +1409,11 @@
         <v>100000</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F19">
@@ -1429,19 +1426,19 @@
         <v>34.970112</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.339648000000004</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3339648000000002E-9</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0072468185757321E-5</v>
       </c>
       <c r="O19" s="3" t="e">
-        <f>AVERAGE(L19:N19)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1456,11 +1453,11 @@
         <v>1000000</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F20">
@@ -1473,19 +1470,19 @@
         <v>350.03008</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>346.64797866666663</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4664797866666662E-10</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7391906585825752E-5</v>
       </c>
       <c r="O20" s="3" t="e">
-        <f>AVERAGE(L20:N20)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1500,11 +1497,11 @@
         <v>10000000</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000000000</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>232534966.64211538</v>
       </c>
       <c r="F21">
@@ -1517,19 +1514,19 @@
         <v>3991.6108800000002</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4055.4723840000001</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0554723840000003E-11</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7440269059584507E-5</v>
       </c>
       <c r="O21" s="3" t="e">
-        <f>AVERAGE(L21:N21)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1544,11 +1541,11 @@
         <v>1000</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="F22">
@@ -1561,19 +1558,19 @@
         <v>11.235072000000001</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.022037333333335</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3022037333333336E-5</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3066746139965117E-3</v>
       </c>
       <c r="O22" s="3" t="e">
-        <f>AVERAGE(L22:N22)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1588,11 +1585,11 @@
         <v>10000</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F23">
@@ -1605,19 +1602,19 @@
         <v>322.92787199999998</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>327.66097066666663</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2766097066666661E-6</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.465894514476063E-3</v>
       </c>
       <c r="O23" s="3" t="e">
-        <f>AVERAGE(L23:N23)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1632,11 +1629,11 @@
         <v>100000</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F24">
@@ -1649,19 +1646,19 @@
         <v>31621.054208000001</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31747.189077333333</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1747189077333331E-6</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9113712380586487E-2</v>
       </c>
       <c r="O24" s="3" t="e">
-        <f>AVERAGE(L24:N24)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1676,11 +1673,11 @@
         <v>1000000</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F25">
@@ -1693,19 +1690,19 @@
         <v>3334050.3088639998</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3305086.5800533332</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3050865800533334E-6</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16582169981042288</v>
       </c>
       <c r="O25" s="3" t="e">
-        <f>AVERAGE(L25:N25)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1720,27 +1717,27 @@
         <v>10000000</v>
       </c>
       <c r="D26">
+        <f t="shared" si="1"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="2"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I26" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="1"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I26" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="3" t="e">
-        <f>AVERAGE(L26:N26)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1772,19 +1769,19 @@
         <v>4.1390039999999999</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1313676666666668</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1313676666666668E-6</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1455519692765955E-4</v>
       </c>
       <c r="O27" s="3" t="e">
-        <f>AVERAGE(L27:N27)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1799,11 +1796,11 @@
         <v>10000</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" ref="E28:E51" si="5">C28 * LOG(C28, 2)</f>
+        <f t="shared" ref="E28:E51" si="6">C28 * LOG(C28, 2)</f>
         <v>132877.1237954945</v>
       </c>
       <c r="F28">
@@ -1816,19 +1813,19 @@
         <v>134.790627</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134.97624399999998</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3497624399999999E-6</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0157974536515115E-3</v>
       </c>
       <c r="O28" s="3" t="e">
-        <f>AVERAGE(L28:N28)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1843,11 +1840,11 @@
         <v>100000</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F29">
@@ -1860,19 +1857,19 @@
         <v>13109.891970000001</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13093.957378999999</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3093957379E-6</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8833478660494481E-3</v>
       </c>
       <c r="O29" s="3" t="e">
-        <f>AVERAGE(L29:N29)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1887,30 +1884,30 @@
         <v>1000000</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F30">
         <v>1336655.5011179999</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1336655.5011179999</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3366555011179998E-6</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7062233284298028E-2</v>
       </c>
       <c r="O30" s="3" t="e">
-        <f>AVERAGE(L30:N30)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1925,27 +1922,27 @@
         <v>10000000</v>
       </c>
       <c r="D31">
+        <f t="shared" si="1"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="6"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I31" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="5"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I31" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="3" t="e">
-        <f>AVERAGE(L31:N31)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1960,11 +1957,11 @@
         <v>1000</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="F32">
@@ -1977,19 +1974,19 @@
         <v>2.8373020000000002</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.870174</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8701740000000002E-6</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8800282225829052E-4</v>
       </c>
       <c r="O32" s="3" t="e">
-        <f>AVERAGE(L32:N32)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2004,11 +2001,11 @@
         <v>10000</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F33">
@@ -2021,19 +2018,19 @@
         <v>188.01398</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>187.66765999999998</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8766765999999998E-6</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4123398719017373E-3</v>
       </c>
       <c r="O33" s="3" t="e">
-        <f>AVERAGE(L33:N33)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2048,11 +2045,11 @@
         <v>100000</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F34">
@@ -2065,19 +2062,19 @@
         <v>18760.222179</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18757.945143666668</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8757945143666667E-6</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1293408290526349E-2</v>
       </c>
       <c r="O34" s="3" t="e">
-        <f>AVERAGE(L34:N34)</f>
+        <f t="shared" ref="O34:O51" si="7">AVERAGE(L34:N34)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2092,27 +2089,27 @@
         <v>1000000</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="E35" s="3">
+        <f t="shared" si="6"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="I35" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="I35" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="3" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="3" t="e">
-        <f>AVERAGE(L35:N35)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2127,27 +2124,27 @@
         <v>10000000</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000000000</v>
       </c>
       <c r="E36" s="3">
+        <f t="shared" si="6"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I36" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I36" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="3" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="3" t="e">
-        <f>AVERAGE(L36:N36)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2162,11 +2159,11 @@
         <v>1000</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="F37">
@@ -2179,19 +2176,19 @@
         <v>2.3500190000000001</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.340614</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3406140000000001E-6</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3486500742368453E-4</v>
       </c>
       <c r="O37" s="3" t="e">
-        <f>AVERAGE(L37:N37)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2206,11 +2203,11 @@
         <v>10000</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F38">
@@ -2223,19 +2220,19 @@
         <v>4.136908</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2159683333333335</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2159683333333336E-8</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1728323227570386E-5</v>
       </c>
       <c r="O38" s="3" t="e">
-        <f>AVERAGE(L38:N38)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2250,11 +2247,11 @@
         <v>100000</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F39">
@@ -2267,19 +2264,19 @@
         <v>33.489311999999998</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.47625166666667</v>
       </c>
       <c r="J39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.347625166666667E-9</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0154711788126023E-5</v>
       </c>
       <c r="O39" s="3" t="e">
-        <f>AVERAGE(L39:N39)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2294,11 +2291,11 @@
         <v>1000000</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F40">
@@ -2311,19 +2308,19 @@
         <v>371.21142500000002</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>373.82435033333331</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7382435033333331E-10</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8755390426655655E-5</v>
       </c>
       <c r="O40" s="3" t="e">
-        <f>AVERAGE(L40:N40)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2338,11 +2335,11 @@
         <v>10000000</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000000000</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>232534966.64211538</v>
       </c>
       <c r="F41">
@@ -2355,19 +2352,19 @@
         <v>4280.7752099999998</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4260.6625749999994</v>
       </c>
       <c r="J41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2606625749999994E-11</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8322674806827667E-5</v>
       </c>
       <c r="O41" s="3" t="e">
-        <f>AVERAGE(L41:N41)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2382,11 +2379,11 @@
         <v>1000</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="F42">
@@ -2399,19 +2396,19 @@
         <v>0.68290799999999996</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63190033333333329</v>
       </c>
       <c r="J42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3190033333333328E-7</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.3406984867800522E-5</v>
       </c>
       <c r="O42" s="3" t="e">
-        <f>AVERAGE(L42:N42)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2426,11 +2423,11 @@
         <v>10000</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F43">
@@ -2443,19 +2440,19 @@
         <v>2.452197</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8170009999999999</v>
       </c>
       <c r="J43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.817001E-8</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1200044970385767E-5</v>
       </c>
       <c r="O43" s="3" t="e">
-        <f>AVERAGE(L43:N43)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2470,11 +2467,11 @@
         <v>100000</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F44">
@@ -2487,19 +2484,19 @@
         <v>17.263856000000001</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.485508999999997</v>
       </c>
       <c r="J44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7485508999999996E-9</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0527325396905006E-5</v>
       </c>
       <c r="O44" s="3" t="e">
-        <f>AVERAGE(L44:N44)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2514,11 +2511,11 @@
         <v>1000000</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F45">
@@ -2531,19 +2528,19 @@
         <v>185.92921799999999</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184.47335266666664</v>
       </c>
       <c r="J45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8447335266666663E-10</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.2553354255611231E-6</v>
       </c>
       <c r="O45" s="3" t="e">
-        <f>AVERAGE(L45:N45)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2558,11 +2555,11 @@
         <v>10000000</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000000000</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>232534966.64211538</v>
       </c>
       <c r="F46">
@@ -2575,19 +2572,19 @@
         <v>2127.986727</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2088.2591456666664</v>
       </c>
       <c r="J46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0882591456666664E-11</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9804091652186511E-6</v>
       </c>
       <c r="O46" s="3" t="e">
-        <f>AVERAGE(L46:N46)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2602,11 +2599,11 @@
         <v>1000</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="F47">
@@ -2619,19 +2616,19 @@
         <v>4.7899250000000002</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7810079999999999</v>
       </c>
       <c r="J47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7810079999999998E-6</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7974227250315309E-4</v>
       </c>
       <c r="O47" s="3" t="e">
-        <f>AVERAGE(L47:N47)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2646,11 +2643,11 @@
         <v>10000</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F48">
@@ -2663,19 +2660,19 @@
         <v>151.60509200000001</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150.86966366666667</v>
       </c>
       <c r="J48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5086966366666667E-6</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1354073549850743E-3</v>
       </c>
       <c r="O48" s="3" t="e">
-        <f>AVERAGE(L48:N48)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2690,11 +2687,11 @@
         <v>100000</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000000000</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F49">
@@ -2707,19 +2704,19 @@
         <v>12408.938706000001</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12388.020241666667</v>
       </c>
       <c r="J49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2388020241666667E-6</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4583313592684565E-3</v>
       </c>
       <c r="O49" s="3" t="e">
-        <f>AVERAGE(L49:N49)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2734,11 +2731,11 @@
         <v>1000000</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F50">
@@ -2755,15 +2752,15 @@
         <v>1284286.1488913333</v>
       </c>
       <c r="J50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2842861488913333E-6</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4434775638678193E-2</v>
       </c>
       <c r="O50" s="3" t="e">
-        <f>AVERAGE(L50:N50)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2778,27 +2775,27 @@
         <v>10000000</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000000000</v>
       </c>
       <c r="E51" s="3">
+        <f t="shared" si="6"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I51" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J51" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="3" t="e">
         <f t="shared" si="5"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I51" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J51" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K51" s="3" t="e">
-        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O51" s="3" t="e">
-        <f>AVERAGE(L51:N51)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2820,26 +2817,35 @@
         <f>C52 * LOG(C52, 2)</f>
         <v>9965.7842846620879</v>
       </c>
-      <c r="I52" s="3" t="e">
-        <f t="shared" ref="I52:J111" si="6">AVERAGE(F52:H52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J52" t="e">
-        <f t="shared" ref="J52:J101" si="7">I52/D52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K52" s="3" t="e">
-        <f t="shared" ref="K52:K111" si="8">I52/E52</f>
-        <v>#DIV/0!</v>
+      <c r="F52">
+        <v>6.8347680000000004</v>
+      </c>
+      <c r="G52">
+        <v>6.6967499999999998</v>
+      </c>
+      <c r="H52">
+        <v>6.9670339999999999</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" ref="I52:J86" si="8">AVERAGE(F52:H52)</f>
+        <v>6.8328506666666664</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:J76" si="9">I52/D52</f>
+        <v>6.8328506666666664E-6</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" ref="K52:K86" si="10">I52/E52</f>
+        <v>6.8563100218643248E-4</v>
       </c>
       <c r="O52" s="3" t="e">
-        <f>AVERAGE(L52:N52)</f>
+        <f t="shared" ref="O52:O72" si="11">AVERAGE(L52:N52)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>3</v>
@@ -2848,33 +2854,42 @@
         <v>10000</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D53:D86" si="12">C53^2</f>
         <v>100000000</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" ref="E53:E76" si="9">C53 * LOG(C53, 2)</f>
+        <f t="shared" ref="E53:E86" si="13">C53 * LOG(C53, 2)</f>
         <v>132877.1237954945</v>
       </c>
-      <c r="I53" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J53" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K53" s="3" t="e">
+      <c r="F53">
+        <v>46.391427999999998</v>
+      </c>
+      <c r="G53">
+        <v>95.266052000000002</v>
+      </c>
+      <c r="H53">
+        <v>45.468547999999998</v>
+      </c>
+      <c r="I53" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>62.375342666666661</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="9"/>
+        <v>6.237534266666666E-7</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" si="10"/>
+        <v>4.6942122831215014E-4</v>
       </c>
       <c r="O53" s="3" t="e">
-        <f>AVERAGE(L53:N53)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>3</v>
@@ -2883,33 +2898,42 @@
         <v>100000</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>10000000000</v>
       </c>
       <c r="E54" s="3">
+        <f t="shared" si="13"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="F54">
+        <v>4969.7403990000003</v>
+      </c>
+      <c r="G54">
+        <v>5434.9035219999996</v>
+      </c>
+      <c r="H54">
+        <v>5324.6422830000001</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="8"/>
+        <v>5243.095401333333</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="9"/>
-        <v>1660964.0474436812</v>
-      </c>
-      <c r="I54" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J54" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K54" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.2430954013333335E-7</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="10"/>
+        <v>3.156657971858426E-3</v>
       </c>
       <c r="O54" s="3" t="e">
-        <f>AVERAGE(L54:N54)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>3</v>
@@ -2918,33 +2942,42 @@
         <v>1000000</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>1000000000000</v>
       </c>
       <c r="E55" s="3">
+        <f t="shared" si="13"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="F55">
+        <v>529361.06123899994</v>
+      </c>
+      <c r="G55">
+        <v>506727.02316699998</v>
+      </c>
+      <c r="H55">
+        <v>379114.815902</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="8"/>
+        <v>471734.30010266666</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="9"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="I55" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J55" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K55" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.7173430010266668E-7</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="10"/>
+        <v>2.3667695719076159E-2</v>
       </c>
       <c r="O55" s="3" t="e">
-        <f>AVERAGE(L55:N55)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>3</v>
@@ -2953,33 +2986,33 @@
         <v>10000000</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>100000000000000</v>
       </c>
       <c r="E56" s="3">
+        <f t="shared" si="13"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I56" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J56" t="e">
         <f t="shared" si="9"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I56" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K56" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O56" s="3" t="e">
-        <f>AVERAGE(L56:N56)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>4</v>
@@ -2988,33 +3021,42 @@
         <v>1000</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="E57" s="3">
+        <f t="shared" si="13"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="F57">
+        <v>4.2244229999999998</v>
+      </c>
+      <c r="G57">
+        <v>4.1151960000000001</v>
+      </c>
+      <c r="H57">
+        <v>4.0925830000000003</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="8"/>
+        <v>4.1440673333333331</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="9"/>
-        <v>9965.7842846620879</v>
-      </c>
-      <c r="I57" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.1440673333333327E-6</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="10"/>
+        <v>4.1582952379485975E-4</v>
       </c>
       <c r="O57" s="3" t="e">
-        <f>AVERAGE(L57:N57)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>4</v>
@@ -3023,33 +3065,42 @@
         <v>10000</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>100000000</v>
       </c>
       <c r="E58" s="3">
+        <f t="shared" si="13"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="F58">
+        <v>59.903948</v>
+      </c>
+      <c r="G58">
+        <v>60.542242000000002</v>
+      </c>
+      <c r="H58">
+        <v>59.304056000000003</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="8"/>
+        <v>59.91674866666667</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="9"/>
-        <v>132877.1237954945</v>
-      </c>
-      <c r="I58" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K58" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.9916748666666673E-7</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="10"/>
+        <v>4.5091846478316299E-4</v>
       </c>
       <c r="O58" s="3" t="e">
-        <f>AVERAGE(L58:N58)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>4</v>
@@ -3058,33 +3109,42 @@
         <v>100000</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>10000000000</v>
       </c>
       <c r="E59" s="3">
+        <f t="shared" si="13"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="F59">
+        <v>5469.2706399999997</v>
+      </c>
+      <c r="G59">
+        <v>5459.6450480000003</v>
+      </c>
+      <c r="H59">
+        <v>5459.6343809999998</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="8"/>
+        <v>5462.850023</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="9"/>
-        <v>1660964.0474436812</v>
-      </c>
-      <c r="I59" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K59" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.4628500229999999E-7</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="10"/>
+        <v>3.288963437473339E-3</v>
       </c>
       <c r="O59" s="3" t="e">
-        <f>AVERAGE(L59:N59)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>4</v>
@@ -3093,33 +3153,42 @@
         <v>1000000</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>1000000000000</v>
       </c>
       <c r="E60" s="3">
+        <f t="shared" si="13"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="F60">
+        <v>764823.28847100004</v>
+      </c>
+      <c r="G60">
+        <v>779120.33995000005</v>
+      </c>
+      <c r="H60">
+        <v>992614</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="8"/>
+        <v>845519.20947366673</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="9"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="I60" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J60" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K60" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>8.4551920947366676E-7</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="10"/>
+        <v>4.2421107326945116E-2</v>
       </c>
       <c r="O60" s="3" t="e">
-        <f>AVERAGE(L60:N60)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>4</v>
@@ -3128,33 +3197,33 @@
         <v>10000000</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>100000000000000</v>
       </c>
       <c r="E61" s="3">
+        <f t="shared" si="13"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I61" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J61" t="e">
         <f t="shared" si="9"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I61" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J61" t="e">
-        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="3" t="e">
-        <f>AVERAGE(L61:N61)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>5</v>
@@ -3163,33 +3232,42 @@
         <v>1000</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="E62" s="3">
+        <f t="shared" si="13"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="F62">
+        <v>1.267625</v>
+      </c>
+      <c r="G62">
+        <v>1.7941309999999999</v>
+      </c>
+      <c r="H62">
+        <v>1.224105</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4286203333333332</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="9"/>
-        <v>9965.7842846620879</v>
-      </c>
-      <c r="I62" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J62" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K62" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.4286203333333332E-6</v>
+      </c>
+      <c r="K62" s="3">
+        <f t="shared" si="10"/>
+        <v>1.4335252424960287E-4</v>
       </c>
       <c r="O62" s="3" t="e">
-        <f>AVERAGE(L62:N62)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>5</v>
@@ -3198,33 +3276,42 @@
         <v>10000</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>100000000</v>
       </c>
       <c r="E63" s="3">
+        <f t="shared" si="13"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="F63">
+        <v>5.4971690000000004</v>
+      </c>
+      <c r="G63">
+        <v>5.498875</v>
+      </c>
+      <c r="H63">
+        <v>5.545382</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="8"/>
+        <v>5.5138086666666668</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="9"/>
-        <v>132877.1237954945</v>
-      </c>
-      <c r="I63" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J63" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.5138086666666666E-8</v>
+      </c>
+      <c r="K63" s="3">
+        <f t="shared" si="10"/>
+        <v>4.1495544975467214E-5</v>
       </c>
       <c r="O63" s="3" t="e">
-        <f>AVERAGE(L63:N63)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>5</v>
@@ -3233,33 +3320,42 @@
         <v>100000</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>10000000000</v>
       </c>
       <c r="E64" s="3">
+        <f t="shared" si="13"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="F64">
+        <v>30.943974000000001</v>
+      </c>
+      <c r="G64">
+        <v>30.827493</v>
+      </c>
+      <c r="H64">
+        <v>31.834426000000001</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="8"/>
+        <v>31.201964333333336</v>
+      </c>
+      <c r="J64">
         <f t="shared" si="9"/>
-        <v>1660964.0474436812</v>
-      </c>
-      <c r="I64" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J64" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K64" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.1201964333333336E-9</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="10"/>
+        <v>1.8785454375942061E-5</v>
       </c>
       <c r="O64" s="3" t="e">
-        <f>AVERAGE(L64:N64)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>5</v>
@@ -3268,33 +3364,42 @@
         <v>1000000</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>1000000000000</v>
       </c>
       <c r="E65" s="3">
+        <f t="shared" si="13"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="F65">
+        <v>190.59823700000001</v>
+      </c>
+      <c r="G65">
+        <v>198.428417</v>
+      </c>
+      <c r="H65">
+        <v>182.49456499999999</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="8"/>
+        <v>190.50707299999999</v>
+      </c>
+      <c r="J65">
         <f t="shared" si="9"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="I65" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J65" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K65" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.9050707299999998E-10</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" si="10"/>
+        <v>9.5580572265246248E-6</v>
       </c>
       <c r="O65" s="3" t="e">
-        <f>AVERAGE(L65:N65)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>5</v>
@@ -3303,33 +3408,42 @@
         <v>10000000</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>100000000000000</v>
       </c>
       <c r="E66" s="3">
+        <f t="shared" si="13"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="F66">
+        <v>2008.5939129999999</v>
+      </c>
+      <c r="G66">
+        <v>1995.036165</v>
+      </c>
+      <c r="H66">
+        <v>2054.1503539999999</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="8"/>
+        <v>2019.2601439999999</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="9"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I66" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J66" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K66" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.0192601439999998E-11</v>
+      </c>
+      <c r="K66" s="3">
+        <f t="shared" si="10"/>
+        <v>8.6836838913252857E-6</v>
       </c>
       <c r="O66" s="3" t="e">
-        <f>AVERAGE(L66:N66)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>6</v>
@@ -3338,33 +3452,42 @@
         <v>1000</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D76" si="10">C67^2</f>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="E67" s="3">
+        <f t="shared" si="13"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="F67">
+        <v>0.52138700000000004</v>
+      </c>
+      <c r="G67">
+        <v>0.52949299999999999</v>
+      </c>
+      <c r="H67">
+        <v>0.50218700000000005</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="8"/>
+        <v>0.51768899999999995</v>
+      </c>
+      <c r="J67">
         <f t="shared" si="9"/>
-        <v>9965.7842846620879</v>
-      </c>
-      <c r="I67" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J67" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K67" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.1768899999999994E-7</v>
+      </c>
+      <c r="K67" s="3">
+        <f t="shared" si="10"/>
+        <v>5.1946639141763576E-5</v>
       </c>
       <c r="O67" s="3" t="e">
-        <f>AVERAGE(L67:N67)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>6</v>
@@ -3373,33 +3496,42 @@
         <v>10000</v>
       </c>
       <c r="D68">
+        <f t="shared" si="12"/>
+        <v>100000000</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="13"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="F68">
+        <v>3.0463969999999998</v>
+      </c>
+      <c r="G68">
+        <v>2.7379169999999999</v>
+      </c>
+      <c r="H68">
+        <v>2.6641050000000002</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="8"/>
+        <v>2.8161396666666669</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="9"/>
+        <v>2.8161396666666668E-8</v>
+      </c>
+      <c r="K68" s="3">
         <f t="shared" si="10"/>
-        <v>100000000</v>
-      </c>
-      <c r="E68" s="3">
-        <f t="shared" si="9"/>
-        <v>132877.1237954945</v>
-      </c>
-      <c r="I68" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J68" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K68" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.1193562791145804E-5</v>
       </c>
       <c r="O68" s="3" t="e">
-        <f>AVERAGE(L68:N68)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>6</v>
@@ -3408,33 +3540,42 @@
         <v>100000</v>
       </c>
       <c r="D69">
+        <f t="shared" si="12"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="13"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="F69">
+        <v>16.236785999999999</v>
+      </c>
+      <c r="G69">
+        <v>18.487024000000002</v>
+      </c>
+      <c r="H69">
+        <v>19.689796000000001</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="8"/>
+        <v>18.137868666666666</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="9"/>
+        <v>1.8137868666666666E-9</v>
+      </c>
+      <c r="K69" s="3">
         <f t="shared" si="10"/>
-        <v>10000000000</v>
-      </c>
-      <c r="E69" s="3">
-        <f t="shared" si="9"/>
-        <v>1660964.0474436812</v>
-      </c>
-      <c r="I69" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J69" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K69" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.0920085052161054E-5</v>
       </c>
       <c r="O69" s="3" t="e">
-        <f>AVERAGE(L69:N69)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>6</v>
@@ -3443,33 +3584,42 @@
         <v>1000000</v>
       </c>
       <c r="D70">
+        <f t="shared" si="12"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="13"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="F70">
+        <v>124.5072</v>
+      </c>
+      <c r="G70">
+        <v>125.334507</v>
+      </c>
+      <c r="H70">
+        <v>128.53663700000001</v>
+      </c>
+      <c r="I70" s="3">
+        <f t="shared" si="8"/>
+        <v>126.12611466666665</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="9"/>
+        <v>1.2612611466666665E-10</v>
+      </c>
+      <c r="K70" s="3">
         <f t="shared" si="10"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="E70" s="3">
-        <f t="shared" si="9"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="I70" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J70" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K70" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>6.3279572918702429E-6</v>
       </c>
       <c r="O70" s="3" t="e">
-        <f>AVERAGE(L70:N70)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>6</v>
@@ -3478,33 +3628,42 @@
         <v>10000000</v>
       </c>
       <c r="D71">
+        <f t="shared" si="12"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="13"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="F71">
+        <v>1284.9606100000001</v>
+      </c>
+      <c r="G71">
+        <v>1301.5242229999999</v>
+      </c>
+      <c r="H71">
+        <v>1341.5532020000001</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" si="8"/>
+        <v>1309.3460116666668</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="9"/>
+        <v>1.3093460116666667E-11</v>
+      </c>
+      <c r="K71" s="3">
         <f t="shared" si="10"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="E71" s="3">
-        <f t="shared" si="9"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I71" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J71" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K71" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.6307489173523958E-6</v>
       </c>
       <c r="O71" s="3" t="e">
-        <f>AVERAGE(L71:N71)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>7</v>
@@ -3513,33 +3672,42 @@
         <v>1000</v>
       </c>
       <c r="D72">
+        <f t="shared" si="12"/>
+        <v>1000000</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="13"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="F72">
+        <v>6.6423410000000001</v>
+      </c>
+      <c r="G72">
+        <v>6.7554080000000001</v>
+      </c>
+      <c r="H72">
+        <v>6.5924209999999999</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="8"/>
+        <v>6.6633899999999997</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="9"/>
+        <v>6.6633899999999997E-6</v>
+      </c>
+      <c r="K72" s="3">
         <f t="shared" si="10"/>
-        <v>1000000</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" si="9"/>
-        <v>9965.7842846620879</v>
-      </c>
-      <c r="I72" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J72" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K72" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>6.6862675426913843E-4</v>
       </c>
       <c r="O72" s="3" t="e">
-        <f>AVERAGE(L72:N72)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>7</v>
@@ -3548,33 +3716,42 @@
         <v>10000</v>
       </c>
       <c r="D73">
+        <f t="shared" si="12"/>
+        <v>100000000</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="13"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="F73">
+        <v>102.597459</v>
+      </c>
+      <c r="G73">
+        <v>93.457413000000003</v>
+      </c>
+      <c r="H73">
+        <v>89.271817999999996</v>
+      </c>
+      <c r="I73" s="3">
+        <f t="shared" si="8"/>
+        <v>95.108896666666666</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="9"/>
+        <v>9.5108896666666669E-7</v>
+      </c>
+      <c r="K73" s="3">
         <f t="shared" si="10"/>
-        <v>100000000</v>
-      </c>
-      <c r="E73" s="3">
-        <f t="shared" si="9"/>
-        <v>132877.1237954945</v>
-      </c>
-      <c r="I73" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J73" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K73" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>7.1576576877931759E-4</v>
       </c>
       <c r="O73" s="3" t="e">
-        <f>AVERAGE(L73:N73)</f>
+        <f t="shared" ref="O73:O104" si="14">AVERAGE(L73:N73)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>7</v>
@@ -3583,33 +3760,42 @@
         <v>100000</v>
       </c>
       <c r="D74">
+        <f t="shared" si="12"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="13"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="F74">
+        <v>7689.3882119999998</v>
+      </c>
+      <c r="G74">
+        <v>7733.8690280000001</v>
+      </c>
+      <c r="H74">
+        <v>7661.4782619999996</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="8"/>
+        <v>7694.9118339999995</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="9"/>
+        <v>7.6949118339999997E-7</v>
+      </c>
+      <c r="K74" s="3">
         <f t="shared" si="10"/>
-        <v>10000000000</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="9"/>
-        <v>1660964.0474436812</v>
-      </c>
-      <c r="I74" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J74" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K74" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.632798552047475E-3</v>
       </c>
       <c r="O74" s="3" t="e">
-        <f>AVERAGE(L74:N74)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>7</v>
@@ -3618,33 +3804,42 @@
         <v>1000000</v>
       </c>
       <c r="D75">
+        <f t="shared" si="12"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="13"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="F75">
+        <v>810126.60042499995</v>
+      </c>
+      <c r="G75">
+        <v>1033263.807348</v>
+      </c>
+      <c r="H75">
+        <v>1278424.8696109999</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="8"/>
+        <v>1040605.0924613333</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="9"/>
+        <v>1.0406050924613332E-6</v>
+      </c>
+      <c r="K75" s="3">
         <f t="shared" si="10"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="E75" s="3">
-        <f t="shared" si="9"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="I75" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J75" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K75" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.2208891078591987E-2</v>
       </c>
       <c r="O75" s="3" t="e">
-        <f>AVERAGE(L75:N75)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>7</v>
@@ -3653,33 +3848,33 @@
         <v>10000000</v>
       </c>
       <c r="D76">
+        <f t="shared" si="12"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="13"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="I76" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J76" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K76" s="3" t="e">
         <f t="shared" si="10"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="E76" s="3">
-        <f t="shared" si="9"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I76" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J76" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K76" s="3" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O76" s="3" t="e">
-        <f>AVERAGE(L76:N76)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>3</v>
@@ -3688,42 +3883,42 @@
         <v>1000</v>
       </c>
       <c r="D77">
-        <f>C77^2</f>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="E77" s="3">
-        <f>C77 * LOG(C77, 2)</f>
+        <f t="shared" si="13"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="F77">
-        <v>6.8347680000000004</v>
+        <v>14.811317000000001</v>
       </c>
       <c r="G77">
-        <v>6.6967499999999998</v>
+        <v>14.987531000000001</v>
       </c>
       <c r="H77">
-        <v>6.9670339999999999</v>
+        <v>14.845208</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="6"/>
-        <v>6.8328506666666664</v>
+        <f t="shared" si="8"/>
+        <v>14.881352</v>
       </c>
       <c r="J77">
-        <f t="shared" si="7"/>
-        <v>6.8328506666666664E-6</v>
+        <f t="shared" si="8"/>
+        <v>14.904696999999999</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="8"/>
-        <v>6.8563100218643248E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.493244442678059E-3</v>
       </c>
       <c r="O77" s="3" t="e">
-        <f>AVERAGE(L77:N77)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>3</v>
@@ -3732,42 +3927,42 @@
         <v>10000</v>
       </c>
       <c r="D78">
-        <f t="shared" ref="D78:D111" si="11">C78^2</f>
+        <f t="shared" si="12"/>
         <v>100000000</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" ref="E78:E111" si="12">C78 * LOG(C78, 2)</f>
+        <f t="shared" si="13"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F78">
-        <v>46.391427999999998</v>
+        <v>70.199292999999997</v>
       </c>
       <c r="G78">
-        <v>95.266052000000002</v>
+        <v>75.063337000000004</v>
       </c>
       <c r="H78">
-        <v>45.468547999999998</v>
+        <v>76.907670999999993</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="6"/>
-        <v>62.375342666666661</v>
+        <f t="shared" si="8"/>
+        <v>74.056766999999994</v>
       </c>
       <c r="J78">
-        <f t="shared" si="7"/>
-        <v>6.237534266666666E-7</v>
+        <f t="shared" si="8"/>
+        <v>75.34259166666665</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="8"/>
-        <v>4.6942122831215014E-4</v>
+        <f t="shared" si="10"/>
+        <v>5.573327062224616E-4</v>
       </c>
       <c r="O78" s="3" t="e">
-        <f>AVERAGE(L78:N78)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>3</v>
@@ -3776,42 +3971,42 @@
         <v>100000</v>
       </c>
       <c r="D79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10000000000</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F79">
-        <v>4969.7403990000003</v>
+        <v>4811.0237989999996</v>
       </c>
       <c r="G79">
-        <v>5434.9035219999996</v>
+        <v>4833.7088949999998</v>
       </c>
       <c r="H79">
-        <v>5324.6422830000001</v>
+        <v>4807.4534800000001</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="6"/>
-        <v>5243.095401333333</v>
+        <f t="shared" si="8"/>
+        <v>4817.3953913333326</v>
       </c>
       <c r="J79">
-        <f t="shared" si="7"/>
-        <v>5.2430954013333335E-7</v>
+        <f t="shared" si="8"/>
+        <v>4819.5192554444438</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="8"/>
-        <v>3.156657971858426E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.9003610275295123E-3</v>
       </c>
       <c r="O79" s="3" t="e">
-        <f>AVERAGE(L79:N79)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>3</v>
@@ -3820,42 +4015,42 @@
         <v>1000000</v>
       </c>
       <c r="D80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1000000000000</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F80">
-        <v>529361.06123899994</v>
+        <v>486999.47101699997</v>
       </c>
       <c r="G80">
-        <v>506727.02316699998</v>
+        <v>487718.28173400002</v>
       </c>
       <c r="H80">
-        <v>379114.815902</v>
+        <v>487548.768033</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="6"/>
-        <v>471734.30010266666</v>
+        <f t="shared" si="8"/>
+        <v>487422.17359466664</v>
       </c>
       <c r="J80">
-        <f t="shared" si="7"/>
-        <v>4.7173430010266668E-7</v>
+        <f t="shared" si="8"/>
+        <v>487563.07445388893</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="8"/>
-        <v>2.3667695719076159E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.4454782467288466E-2</v>
       </c>
       <c r="O80" s="3" t="e">
-        <f>AVERAGE(L80:N80)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>3</v>
@@ -3864,33 +4059,33 @@
         <v>10000000</v>
       </c>
       <c r="D81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100000000000000</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>232534966.64211538</v>
       </c>
       <c r="I81" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J81" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K81" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O81" s="3" t="e">
-        <f>AVERAGE(L81:N81)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4</v>
@@ -3899,42 +4094,33 @@
         <v>1000</v>
       </c>
       <c r="D82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9965.7842846620879</v>
       </c>
-      <c r="F82">
-        <v>4.2244229999999998</v>
-      </c>
-      <c r="G82">
-        <v>4.1151960000000001</v>
-      </c>
-      <c r="H82">
-        <v>4.0925830000000003</v>
-      </c>
-      <c r="I82" s="3">
-        <f t="shared" si="6"/>
-        <v>4.1440673333333331</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="7"/>
-        <v>4.1440673333333327E-6</v>
-      </c>
-      <c r="K82" s="3">
+      <c r="I82" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>4.1582952379485975E-4</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K82" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O82" s="3" t="e">
-        <f>AVERAGE(L82:N82)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>4</v>
@@ -3943,42 +4129,33 @@
         <v>10000</v>
       </c>
       <c r="D83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100000000</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>132877.1237954945</v>
       </c>
-      <c r="F83">
-        <v>59.903948</v>
-      </c>
-      <c r="G83">
-        <v>60.542242000000002</v>
-      </c>
-      <c r="H83">
-        <v>59.304056000000003</v>
-      </c>
-      <c r="I83" s="3">
-        <f t="shared" si="6"/>
-        <v>59.91674866666667</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="7"/>
-        <v>5.9916748666666673E-7</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="I83" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>4.5091846478316299E-4</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J83" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K83" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O83" s="3" t="e">
-        <f>AVERAGE(L83:N83)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>4</v>
@@ -3987,42 +4164,33 @@
         <v>100000</v>
       </c>
       <c r="D84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10000000000</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1660964.0474436812</v>
       </c>
-      <c r="F84">
-        <v>5469.2706399999997</v>
-      </c>
-      <c r="G84">
-        <v>5459.6450480000003</v>
-      </c>
-      <c r="H84">
-        <v>5459.6343809999998</v>
-      </c>
-      <c r="I84" s="3">
-        <f t="shared" si="6"/>
-        <v>5462.850023</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="7"/>
-        <v>5.4628500229999999E-7</v>
-      </c>
-      <c r="K84" s="3">
+      <c r="I84" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>3.288963437473339E-3</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J84" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K84" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O84" s="3" t="e">
-        <f>AVERAGE(L84:N84)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>4</v>
@@ -4031,42 +4199,33 @@
         <v>1000000</v>
       </c>
       <c r="D85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1000000000000</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19931568.569324173</v>
       </c>
-      <c r="F85">
-        <v>764823.28847100004</v>
-      </c>
-      <c r="G85">
-        <v>779120.33995000005</v>
-      </c>
-      <c r="H85">
-        <v>992614</v>
-      </c>
-      <c r="I85" s="3">
-        <f t="shared" si="6"/>
-        <v>845519.20947366673</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="7"/>
-        <v>8.4551920947366676E-7</v>
-      </c>
-      <c r="K85" s="3">
+      <c r="I85" s="3" t="e">
         <f t="shared" si="8"/>
-        <v>4.2421107326945116E-2</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J85" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K85" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O85" s="3" t="e">
-        <f>AVERAGE(L85:N85)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>4</v>
@@ -4075,33 +4234,33 @@
         <v>10000000</v>
       </c>
       <c r="D86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100000000000000</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>232534966.64211538</v>
       </c>
       <c r="I86" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J86" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K86" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O86" s="3" t="e">
-        <f>AVERAGE(L86:N86)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>5</v>
@@ -4110,42 +4269,51 @@
         <v>1000</v>
       </c>
       <c r="D87">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D87:D96" si="15">C87^2</f>
         <v>1000000</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E87:E96" si="16">C87 * LOG(C87, 2)</f>
         <v>9965.7842846620879</v>
       </c>
       <c r="F87">
-        <v>1.267625</v>
+        <v>1.943754</v>
       </c>
       <c r="G87">
-        <v>1.7941309999999999</v>
+        <v>1.9248879999999999</v>
       </c>
       <c r="H87">
-        <v>1.224105</v>
+        <v>1.9350350000000001</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="6"/>
-        <v>1.4286203333333332</v>
+        <f t="shared" ref="I87:I96" si="17">AVERAGE(F87:H87)</f>
+        <v>1.9345590000000001</v>
       </c>
       <c r="J87">
-        <f t="shared" si="7"/>
-        <v>1.4286203333333332E-6</v>
+        <f t="shared" ref="J87" si="18">I87/D87</f>
+        <v>1.934559E-6</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="8"/>
-        <v>1.4335252424960287E-4</v>
-      </c>
-      <c r="O87" s="3" t="e">
-        <f>AVERAGE(L87:N87)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="K87:K96" si="19">I87/E87</f>
+        <v>1.9412009579390527E-4</v>
+      </c>
+      <c r="L87">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M87">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="N87">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="O87" s="3">
+        <f t="shared" si="14"/>
+        <v>0.17466666666666666</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>5</v>
@@ -4154,42 +4322,51 @@
         <v>10000</v>
       </c>
       <c r="D88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>100000000</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F88">
-        <v>5.4971690000000004</v>
+        <v>6.9243540000000001</v>
       </c>
       <c r="G88">
-        <v>5.498875</v>
+        <v>7.0374080000000001</v>
       </c>
       <c r="H88">
-        <v>5.545382</v>
+        <v>7.0804390000000001</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="6"/>
-        <v>5.5138086666666668</v>
+        <f t="shared" si="17"/>
+        <v>7.0140669999999998</v>
       </c>
       <c r="J88">
-        <f t="shared" si="7"/>
-        <v>5.5138086666666666E-8</v>
+        <f t="shared" ref="J88:J96" si="20">AVERAGE(G88:I88)</f>
+        <v>7.0439713333333343</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="8"/>
-        <v>4.1495544975467214E-5</v>
-      </c>
-      <c r="O88" s="3" t="e">
-        <f>AVERAGE(L88:N88)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="19"/>
+        <v>5.2786113964921836E-5</v>
+      </c>
+      <c r="L88">
+        <v>2.089</v>
+      </c>
+      <c r="M88">
+        <v>2.085</v>
+      </c>
+      <c r="N88">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="O88" s="3">
+        <f t="shared" si="14"/>
+        <v>2.0833333333333335</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>5</v>
@@ -4198,42 +4375,51 @@
         <v>100000</v>
       </c>
       <c r="D89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>10000000000</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F89">
-        <v>30.943974000000001</v>
+        <v>35.220018000000003</v>
       </c>
       <c r="G89">
-        <v>30.827493</v>
+        <v>32.903601999999999</v>
       </c>
       <c r="H89">
-        <v>31.834426000000001</v>
+        <v>27.780306</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="6"/>
-        <v>31.201964333333336</v>
+        <f t="shared" si="17"/>
+        <v>31.967975333333332</v>
       </c>
       <c r="J89">
-        <f t="shared" si="7"/>
-        <v>3.1201964333333336E-9</v>
+        <f t="shared" si="20"/>
+        <v>30.883961111111109</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="8"/>
-        <v>1.8785454375942061E-5</v>
-      </c>
-      <c r="O89" s="3" t="e">
-        <f>AVERAGE(L89:N89)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="19"/>
+        <v>1.9246638951959181E-5</v>
+      </c>
+      <c r="L89">
+        <v>25.465</v>
+      </c>
+      <c r="M89">
+        <v>27.873999999999999</v>
+      </c>
+      <c r="N89">
+        <v>28.038</v>
+      </c>
+      <c r="O89" s="3">
+        <f t="shared" si="14"/>
+        <v>27.125666666666664</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>5</v>
@@ -4242,42 +4428,51 @@
         <v>1000000</v>
       </c>
       <c r="D90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1000000000000</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F90">
-        <v>190.59823700000001</v>
+        <v>154.25817000000001</v>
       </c>
       <c r="G90">
-        <v>198.428417</v>
+        <v>158.63531599999999</v>
       </c>
       <c r="H90">
-        <v>182.49456499999999</v>
+        <v>153.51504800000001</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="6"/>
-        <v>190.50707299999999</v>
+        <f t="shared" si="17"/>
+        <v>155.46951133333334</v>
       </c>
       <c r="J90">
-        <f t="shared" si="7"/>
-        <v>1.9050707299999998E-10</v>
+        <f t="shared" si="20"/>
+        <v>155.87329177777778</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="8"/>
-        <v>9.5580572265246248E-6</v>
-      </c>
-      <c r="O90" s="3" t="e">
-        <f>AVERAGE(L90:N90)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="19"/>
+        <v>7.8001643870924358E-6</v>
+      </c>
+      <c r="L90">
+        <v>298.26900000000001</v>
+      </c>
+      <c r="M90">
+        <v>305.39</v>
+      </c>
+      <c r="N90">
+        <v>302.15699999999998</v>
+      </c>
+      <c r="O90" s="3">
+        <f t="shared" si="14"/>
+        <v>301.93866666666668</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>5</v>
@@ -4286,42 +4481,51 @@
         <v>10000000</v>
       </c>
       <c r="D91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>100000000000000</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>232534966.64211538</v>
       </c>
       <c r="F91">
-        <v>2008.5939129999999</v>
+        <v>1513.7715900000001</v>
       </c>
       <c r="G91">
-        <v>1995.036165</v>
+        <v>1481.7274170000001</v>
       </c>
       <c r="H91">
-        <v>2054.1503539999999</v>
+        <v>1506.2237009999999</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="6"/>
-        <v>2019.2601439999999</v>
+        <f t="shared" si="17"/>
+        <v>1500.5742360000002</v>
       </c>
       <c r="J91">
-        <f t="shared" si="7"/>
-        <v>2.0192601439999998E-11</v>
+        <f t="shared" si="20"/>
+        <v>1496.1751180000001</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="8"/>
-        <v>8.6836838913252857E-6</v>
-      </c>
-      <c r="O91" s="3" t="e">
-        <f>AVERAGE(L91:N91)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="19"/>
+        <v>6.4531122250937419E-6</v>
+      </c>
+      <c r="L91">
+        <v>3428.16</v>
+      </c>
+      <c r="M91">
+        <v>3451.05</v>
+      </c>
+      <c r="N91">
+        <v>3440.26</v>
+      </c>
+      <c r="O91" s="3">
+        <f t="shared" si="14"/>
+        <v>3439.8233333333337</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>6</v>
@@ -4330,42 +4534,51 @@
         <v>1000</v>
       </c>
       <c r="D92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1000000</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="F92">
-        <v>0.52138700000000004</v>
+        <v>0.70394900000000005</v>
       </c>
       <c r="G92">
-        <v>0.52949299999999999</v>
+        <v>0.70909800000000001</v>
       </c>
       <c r="H92">
-        <v>0.50218700000000005</v>
+        <v>0.81640599999999997</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="6"/>
-        <v>0.51768899999999995</v>
+        <f t="shared" si="17"/>
+        <v>0.74315100000000012</v>
       </c>
       <c r="J92">
-        <f t="shared" si="7"/>
-        <v>5.1768899999999994E-7</v>
+        <f t="shared" si="20"/>
+        <v>0.75621833333333333</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="8"/>
-        <v>5.1946639141763576E-5</v>
-      </c>
-      <c r="O92" s="3" t="e">
-        <f>AVERAGE(L92:N92)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="19"/>
+        <v>7.4570247435894432E-5</v>
+      </c>
+      <c r="L92">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="M92">
+        <v>0.18</v>
+      </c>
+      <c r="N92">
+        <v>0.115</v>
+      </c>
+      <c r="O92" s="3">
+        <f t="shared" si="14"/>
+        <v>0.14533333333333331</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>6</v>
@@ -4374,42 +4587,51 @@
         <v>10000</v>
       </c>
       <c r="D93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>100000000</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F93">
-        <v>3.0463969999999998</v>
+        <v>3.7100590000000002</v>
       </c>
       <c r="G93">
-        <v>2.7379169999999999</v>
+        <v>4.4453529999999999</v>
       </c>
       <c r="H93">
-        <v>2.6641050000000002</v>
+        <v>3.4535719999999999</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="6"/>
-        <v>2.8161396666666669</v>
+        <f t="shared" si="17"/>
+        <v>3.8696613333333332</v>
       </c>
       <c r="J93">
-        <f t="shared" si="7"/>
-        <v>2.8161396666666668E-8</v>
+        <f t="shared" si="20"/>
+        <v>3.9228621111111113</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="8"/>
-        <v>2.1193562791145804E-5</v>
-      </c>
-      <c r="O93" s="3" t="e">
-        <f>AVERAGE(L93:N93)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="19"/>
+        <v>2.9122103359860225E-5</v>
+      </c>
+      <c r="L93">
+        <v>1.581</v>
+      </c>
+      <c r="M93">
+        <v>1.345</v>
+      </c>
+      <c r="N93">
+        <v>1.365</v>
+      </c>
+      <c r="O93" s="3">
+        <f t="shared" si="14"/>
+        <v>1.4303333333333335</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>6</v>
@@ -4418,42 +4640,51 @@
         <v>100000</v>
       </c>
       <c r="D94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>10000000000</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F94">
-        <v>16.236785999999999</v>
+        <v>22.625250999999999</v>
       </c>
       <c r="G94">
-        <v>18.487024000000002</v>
+        <v>24.434145999999998</v>
       </c>
       <c r="H94">
-        <v>19.689796000000001</v>
+        <v>24.616895</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="6"/>
-        <v>18.137868666666666</v>
+        <f t="shared" si="17"/>
+        <v>23.892097333333329</v>
       </c>
       <c r="J94">
-        <f t="shared" si="7"/>
-        <v>1.8137868666666666E-9</v>
+        <f t="shared" si="20"/>
+        <v>24.314379444444441</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="8"/>
-        <v>1.0920085052161054E-5</v>
-      </c>
-      <c r="O94" s="3" t="e">
-        <f>AVERAGE(L94:N94)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="19"/>
+        <v>1.4384475913313496E-5</v>
+      </c>
+      <c r="L94">
+        <v>16.533000000000001</v>
+      </c>
+      <c r="M94">
+        <v>16.771000000000001</v>
+      </c>
+      <c r="N94">
+        <v>18.308</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="14"/>
+        <v>17.204000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>6</v>
@@ -4462,42 +4693,51 @@
         <v>1000000</v>
       </c>
       <c r="D95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1000000000000</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F95">
-        <v>124.5072</v>
+        <v>117.683325</v>
       </c>
       <c r="G95">
-        <v>125.334507</v>
+        <v>114.48978</v>
       </c>
       <c r="H95">
-        <v>128.53663700000001</v>
+        <v>121.401741</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="6"/>
-        <v>126.12611466666665</v>
+        <f t="shared" si="17"/>
+        <v>117.85828199999999</v>
       </c>
       <c r="J95">
-        <f t="shared" si="7"/>
-        <v>1.2612611466666665E-10</v>
+        <f t="shared" si="20"/>
+        <v>117.916601</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="8"/>
-        <v>6.3279572918702429E-6</v>
-      </c>
-      <c r="O95" s="3" t="e">
-        <f>AVERAGE(L95:N95)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="19"/>
+        <v>5.9131463532373785E-6</v>
+      </c>
+      <c r="L95">
+        <v>217.52199999999999</v>
+      </c>
+      <c r="M95">
+        <v>206.62799999999999</v>
+      </c>
+      <c r="N95">
+        <v>196.91</v>
+      </c>
+      <c r="O95" s="3">
+        <f t="shared" si="14"/>
+        <v>207.01999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>6</v>
@@ -4506,42 +4746,51 @@
         <v>10000000</v>
       </c>
       <c r="D96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>100000000000000</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>232534966.64211538</v>
       </c>
       <c r="F96">
-        <v>1284.9606100000001</v>
+        <v>1175.3422660000001</v>
       </c>
       <c r="G96">
-        <v>1301.5242229999999</v>
+        <v>1210.1229740000001</v>
       </c>
       <c r="H96">
-        <v>1341.5532020000001</v>
+        <v>1221.0125230000001</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="6"/>
-        <v>1309.3460116666668</v>
+        <f t="shared" si="17"/>
+        <v>1202.1592543333336</v>
       </c>
       <c r="J96">
-        <f t="shared" si="7"/>
-        <v>1.3093460116666667E-11</v>
+        <f t="shared" si="20"/>
+        <v>1211.0982504444446</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="8"/>
-        <v>5.6307489173523958E-6</v>
-      </c>
-      <c r="O96" s="3" t="e">
-        <f>AVERAGE(L96:N96)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="19"/>
+        <v>5.169799930276832E-6</v>
+      </c>
+      <c r="L96">
+        <v>2395.6999999999998</v>
+      </c>
+      <c r="M96">
+        <v>2293</v>
+      </c>
+      <c r="N96">
+        <v>2354.46</v>
+      </c>
+      <c r="O96" s="3">
+        <f t="shared" si="14"/>
+        <v>2347.7199999999998</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>7</v>
@@ -4550,42 +4799,33 @@
         <v>1000</v>
       </c>
       <c r="D97">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D97:D101" si="21">C97^2</f>
         <v>1000000</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E97:E101" si="22">C97 * LOG(C97, 2)</f>
         <v>9965.7842846620879</v>
       </c>
-      <c r="F97">
-        <v>6.6423410000000001</v>
-      </c>
-      <c r="G97">
-        <v>6.7554080000000001</v>
-      </c>
-      <c r="H97">
-        <v>6.5924209999999999</v>
-      </c>
-      <c r="I97" s="3">
-        <f t="shared" si="6"/>
-        <v>6.6633899999999997</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="7"/>
-        <v>6.6633899999999997E-6</v>
-      </c>
-      <c r="K97" s="3">
-        <f t="shared" si="8"/>
-        <v>6.6862675426913843E-4</v>
+      <c r="I97" s="3" t="e">
+        <f t="shared" ref="I97:I101" si="23">AVERAGE(F97:H97)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J97" t="e">
+        <f t="shared" ref="J97:J101" si="24">AVERAGE(G97:I97)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K97" s="3" t="e">
+        <f t="shared" ref="K97:K101" si="25">I97/E97</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O97" s="3" t="e">
-        <f>AVERAGE(L97:N97)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>7</v>
@@ -4594,42 +4834,33 @@
         <v>10000</v>
       </c>
       <c r="D98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>100000000</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>132877.1237954945</v>
       </c>
-      <c r="F98">
-        <v>102.597459</v>
-      </c>
-      <c r="G98">
-        <v>93.457413000000003</v>
-      </c>
-      <c r="H98">
-        <v>89.271817999999996</v>
-      </c>
-      <c r="I98" s="3">
-        <f t="shared" si="6"/>
-        <v>95.108896666666666</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="7"/>
-        <v>9.5108896666666669E-7</v>
-      </c>
-      <c r="K98" s="3">
-        <f t="shared" si="8"/>
-        <v>7.1576576877931759E-4</v>
+      <c r="I98" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J98" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K98" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O98" s="3" t="e">
-        <f>AVERAGE(L98:N98)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>7</v>
@@ -4638,42 +4869,33 @@
         <v>100000</v>
       </c>
       <c r="D99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>10000000000</v>
       </c>
       <c r="E99" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1660964.0474436812</v>
       </c>
-      <c r="F99">
-        <v>7689.3882119999998</v>
-      </c>
-      <c r="G99">
-        <v>7733.8690280000001</v>
-      </c>
-      <c r="H99">
-        <v>7661.4782619999996</v>
-      </c>
-      <c r="I99" s="3">
-        <f t="shared" si="6"/>
-        <v>7694.9118339999995</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="7"/>
-        <v>7.6949118339999997E-7</v>
-      </c>
-      <c r="K99" s="3">
-        <f t="shared" si="8"/>
-        <v>4.632798552047475E-3</v>
+      <c r="I99" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J99" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K99" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O99" s="3" t="e">
-        <f>AVERAGE(L99:N99)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>7</v>
@@ -4682,36 +4904,27 @@
         <v>1000000</v>
       </c>
       <c r="D100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1000000000000</v>
       </c>
       <c r="E100" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>19931568.569324173</v>
       </c>
-      <c r="F100">
-        <v>810126.60042499995</v>
-      </c>
-      <c r="G100">
-        <v>1033263.807348</v>
-      </c>
-      <c r="H100">
-        <v>1278424.8696109999</v>
-      </c>
-      <c r="I100" s="3">
-        <f t="shared" si="6"/>
-        <v>1040605.0924613333</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="7"/>
-        <v>1.0406050924613332E-6</v>
-      </c>
-      <c r="K100" s="3">
-        <f t="shared" si="8"/>
-        <v>5.2208891078591987E-2</v>
+      <c r="I100" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J100" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K100" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O100" s="3" t="e">
-        <f>AVERAGE(L100:N100)</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4726,1082 +4939,27 @@
         <v>10000000</v>
       </c>
       <c r="D101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>100000000000000</v>
       </c>
       <c r="E101" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>232534966.64211538</v>
       </c>
       <c r="I101" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J101" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K101" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O101" s="3" t="e">
-        <f>AVERAGE(L101:N101)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102">
-        <v>1000</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="11"/>
-        <v>1000000</v>
-      </c>
-      <c r="E102" s="3">
-        <f t="shared" si="12"/>
-        <v>9965.7842846620879</v>
-      </c>
-      <c r="I102" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J102" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K102" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O102" s="3" t="e">
-        <f>AVERAGE(L102:N102)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103">
-        <v>10000</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="11"/>
-        <v>100000000</v>
-      </c>
-      <c r="E103" s="3">
-        <f t="shared" si="12"/>
-        <v>132877.1237954945</v>
-      </c>
-      <c r="I103" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J103" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K103" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O103" s="3" t="e">
-        <f>AVERAGE(L103:N103)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104">
-        <v>100000</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="11"/>
-        <v>10000000000</v>
-      </c>
-      <c r="E104" s="3">
-        <f t="shared" si="12"/>
-        <v>1660964.0474436812</v>
-      </c>
-      <c r="I104" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J104" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K104" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O104" s="3" t="e">
-        <f>AVERAGE(L104:N104)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105">
-        <v>1000000</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="11"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="E105" s="3">
-        <f t="shared" si="12"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="I105" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J105" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K105" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O105" s="3" t="e">
-        <f>AVERAGE(L105:N105)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106">
-        <v>10000000</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="11"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="E106" s="3">
-        <f t="shared" si="12"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I106" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J106" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K106" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O106" s="3" t="e">
-        <f>AVERAGE(L106:N106)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107">
-        <v>1000</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="11"/>
-        <v>1000000</v>
-      </c>
-      <c r="E107" s="3">
-        <f t="shared" si="12"/>
-        <v>9965.7842846620879</v>
-      </c>
-      <c r="I107" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J107" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K107" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O107" s="3" t="e">
-        <f>AVERAGE(L107:N107)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" t="s">
-        <v>40</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108">
-        <v>10000</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="11"/>
-        <v>100000000</v>
-      </c>
-      <c r="E108" s="3">
-        <f t="shared" si="12"/>
-        <v>132877.1237954945</v>
-      </c>
-      <c r="I108" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J108" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K108" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O108" s="3" t="e">
-        <f>AVERAGE(L108:N108)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" t="s">
-        <v>40</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109">
-        <v>100000</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="11"/>
-        <v>10000000000</v>
-      </c>
-      <c r="E109" s="3">
-        <f t="shared" si="12"/>
-        <v>1660964.0474436812</v>
-      </c>
-      <c r="I109" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J109" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K109" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O109" s="3" t="e">
-        <f>AVERAGE(L109:N109)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" t="s">
-        <v>40</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110">
-        <v>1000000</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="11"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="E110" s="3">
-        <f t="shared" si="12"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="I110" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J110" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K110" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O110" s="3" t="e">
-        <f>AVERAGE(L110:N110)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" t="s">
-        <v>40</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111">
-        <v>10000000</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="11"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="E111" s="3">
-        <f t="shared" si="12"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I111" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J111" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K111" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O111" s="3" t="e">
-        <f>AVERAGE(L111:N111)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" t="s">
-        <v>40</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112">
-        <v>1000</v>
-      </c>
-      <c r="D112">
-        <f t="shared" ref="D112:D121" si="13">C112^2</f>
-        <v>1000000</v>
-      </c>
-      <c r="E112" s="3">
-        <f t="shared" ref="E112:E121" si="14">C112 * LOG(C112, 2)</f>
-        <v>9965.7842846620879</v>
-      </c>
-      <c r="F112">
-        <v>1.943754</v>
-      </c>
-      <c r="G112">
-        <v>1.9248879999999999</v>
-      </c>
-      <c r="H112">
-        <v>1.9350350000000001</v>
-      </c>
-      <c r="I112" s="3">
-        <f t="shared" ref="I112:I122" si="15">AVERAGE(F112:H112)</f>
-        <v>1.9345590000000001</v>
-      </c>
-      <c r="J112">
-        <f t="shared" ref="J112:J122" si="16">I112/D112</f>
-        <v>1.934559E-6</v>
-      </c>
-      <c r="K112" s="3">
-        <f t="shared" ref="K112:K122" si="17">I112/E112</f>
-        <v>1.9412009579390527E-4</v>
-      </c>
-      <c r="L112">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="M112">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="N112">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="O112" s="3">
-        <f>AVERAGE(L112:N112)</f>
-        <v>0.17466666666666666</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" t="s">
-        <v>40</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113">
-        <v>10000</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="13"/>
-        <v>100000000</v>
-      </c>
-      <c r="E113" s="3">
         <f t="shared" si="14"/>
-        <v>132877.1237954945</v>
-      </c>
-      <c r="F113">
-        <v>6.9243540000000001</v>
-      </c>
-      <c r="G113">
-        <v>7.0374080000000001</v>
-      </c>
-      <c r="H113">
-        <v>7.0804390000000001</v>
-      </c>
-      <c r="I113" s="3">
-        <f t="shared" si="15"/>
-        <v>7.0140669999999998</v>
-      </c>
-      <c r="J113">
-        <f t="shared" ref="J113:J122" si="18">AVERAGE(G113:I113)</f>
-        <v>7.0439713333333343</v>
-      </c>
-      <c r="K113" s="3">
-        <f t="shared" si="17"/>
-        <v>5.2786113964921836E-5</v>
-      </c>
-      <c r="L113">
-        <v>2.089</v>
-      </c>
-      <c r="M113">
-        <v>2.085</v>
-      </c>
-      <c r="N113">
-        <v>2.0760000000000001</v>
-      </c>
-      <c r="O113" s="3">
-        <f>AVERAGE(L113:N113)</f>
-        <v>2.0833333333333335</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" t="s">
-        <v>40</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114">
-        <v>100000</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="13"/>
-        <v>10000000000</v>
-      </c>
-      <c r="E114" s="3">
-        <f t="shared" si="14"/>
-        <v>1660964.0474436812</v>
-      </c>
-      <c r="F114">
-        <v>35.220018000000003</v>
-      </c>
-      <c r="G114">
-        <v>32.903601999999999</v>
-      </c>
-      <c r="H114">
-        <v>27.780306</v>
-      </c>
-      <c r="I114" s="3">
-        <f t="shared" si="15"/>
-        <v>31.967975333333332</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="18"/>
-        <v>30.883961111111109</v>
-      </c>
-      <c r="K114" s="3">
-        <f t="shared" si="17"/>
-        <v>1.9246638951959181E-5</v>
-      </c>
-      <c r="L114">
-        <v>25.465</v>
-      </c>
-      <c r="M114">
-        <v>27.873999999999999</v>
-      </c>
-      <c r="N114">
-        <v>28.038</v>
-      </c>
-      <c r="O114" s="3">
-        <f>AVERAGE(L114:N114)</f>
-        <v>27.125666666666664</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" t="s">
-        <v>40</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115">
-        <v>1000000</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="13"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="E115" s="3">
-        <f t="shared" si="14"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="F115">
-        <v>154.25817000000001</v>
-      </c>
-      <c r="G115">
-        <v>158.63531599999999</v>
-      </c>
-      <c r="H115">
-        <v>153.51504800000001</v>
-      </c>
-      <c r="I115" s="3">
-        <f t="shared" si="15"/>
-        <v>155.46951133333334</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="18"/>
-        <v>155.87329177777778</v>
-      </c>
-      <c r="K115" s="3">
-        <f t="shared" si="17"/>
-        <v>7.8001643870924358E-6</v>
-      </c>
-      <c r="L115">
-        <v>298.26900000000001</v>
-      </c>
-      <c r="M115">
-        <v>305.39</v>
-      </c>
-      <c r="N115">
-        <v>302.15699999999998</v>
-      </c>
-      <c r="O115" s="3">
-        <f>AVERAGE(L115:N115)</f>
-        <v>301.93866666666668</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="A116" t="s">
-        <v>40</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116">
-        <v>10000000</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="13"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="E116" s="3">
-        <f t="shared" si="14"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="F116">
-        <v>1513.7715900000001</v>
-      </c>
-      <c r="G116">
-        <v>1481.7274170000001</v>
-      </c>
-      <c r="H116">
-        <v>1506.2237009999999</v>
-      </c>
-      <c r="I116" s="3">
-        <f t="shared" si="15"/>
-        <v>1500.5742360000002</v>
-      </c>
-      <c r="J116">
-        <f t="shared" si="18"/>
-        <v>1496.1751180000001</v>
-      </c>
-      <c r="K116" s="3">
-        <f t="shared" si="17"/>
-        <v>6.4531122250937419E-6</v>
-      </c>
-      <c r="L116">
-        <v>3428.16</v>
-      </c>
-      <c r="M116">
-        <v>3451.05</v>
-      </c>
-      <c r="N116">
-        <v>3440.26</v>
-      </c>
-      <c r="O116" s="3">
-        <f>AVERAGE(L116:N116)</f>
-        <v>3439.8233333333337</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" t="s">
-        <v>40</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117">
-        <v>1000</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="13"/>
-        <v>1000000</v>
-      </c>
-      <c r="E117" s="3">
-        <f t="shared" si="14"/>
-        <v>9965.7842846620879</v>
-      </c>
-      <c r="F117">
-        <v>0.70394900000000005</v>
-      </c>
-      <c r="G117">
-        <v>0.70909800000000001</v>
-      </c>
-      <c r="H117">
-        <v>0.81640599999999997</v>
-      </c>
-      <c r="I117" s="3">
-        <f t="shared" si="15"/>
-        <v>0.74315100000000012</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="18"/>
-        <v>0.75621833333333333</v>
-      </c>
-      <c r="K117" s="3">
-        <f t="shared" si="17"/>
-        <v>7.4570247435894432E-5</v>
-      </c>
-      <c r="L117">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="M117">
-        <v>0.18</v>
-      </c>
-      <c r="N117">
-        <v>0.115</v>
-      </c>
-      <c r="O117" s="3">
-        <f>AVERAGE(L117:N117)</f>
-        <v>0.14533333333333331</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" t="s">
-        <v>40</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118">
-        <v>10000</v>
-      </c>
-      <c r="D118">
-        <f t="shared" si="13"/>
-        <v>100000000</v>
-      </c>
-      <c r="E118" s="3">
-        <f t="shared" si="14"/>
-        <v>132877.1237954945</v>
-      </c>
-      <c r="F118">
-        <v>3.7100590000000002</v>
-      </c>
-      <c r="G118">
-        <v>4.4453529999999999</v>
-      </c>
-      <c r="H118">
-        <v>3.4535719999999999</v>
-      </c>
-      <c r="I118" s="3">
-        <f t="shared" si="15"/>
-        <v>3.8696613333333332</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="18"/>
-        <v>3.9228621111111113</v>
-      </c>
-      <c r="K118" s="3">
-        <f t="shared" si="17"/>
-        <v>2.9122103359860225E-5</v>
-      </c>
-      <c r="L118">
-        <v>1.581</v>
-      </c>
-      <c r="M118">
-        <v>1.345</v>
-      </c>
-      <c r="N118">
-        <v>1.365</v>
-      </c>
-      <c r="O118" s="3">
-        <f>AVERAGE(L118:N118)</f>
-        <v>1.4303333333333335</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" t="s">
-        <v>40</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119">
-        <v>100000</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="13"/>
-        <v>10000000000</v>
-      </c>
-      <c r="E119" s="3">
-        <f t="shared" si="14"/>
-        <v>1660964.0474436812</v>
-      </c>
-      <c r="F119">
-        <v>22.625250999999999</v>
-      </c>
-      <c r="G119">
-        <v>24.434145999999998</v>
-      </c>
-      <c r="H119">
-        <v>24.616895</v>
-      </c>
-      <c r="I119" s="3">
-        <f t="shared" si="15"/>
-        <v>23.892097333333329</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="18"/>
-        <v>24.314379444444441</v>
-      </c>
-      <c r="K119" s="3">
-        <f t="shared" si="17"/>
-        <v>1.4384475913313496E-5</v>
-      </c>
-      <c r="L119">
-        <v>16.533000000000001</v>
-      </c>
-      <c r="M119">
-        <v>16.771000000000001</v>
-      </c>
-      <c r="N119">
-        <v>18.308</v>
-      </c>
-      <c r="O119" s="3">
-        <f>AVERAGE(L119:N119)</f>
-        <v>17.204000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" t="s">
-        <v>40</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120">
-        <v>1000000</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="13"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="E120" s="3">
-        <f t="shared" si="14"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="F120">
-        <v>117.683325</v>
-      </c>
-      <c r="G120">
-        <v>114.48978</v>
-      </c>
-      <c r="H120">
-        <v>121.401741</v>
-      </c>
-      <c r="I120" s="3">
-        <f t="shared" si="15"/>
-        <v>117.85828199999999</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="18"/>
-        <v>117.916601</v>
-      </c>
-      <c r="K120" s="3">
-        <f t="shared" si="17"/>
-        <v>5.9131463532373785E-6</v>
-      </c>
-      <c r="L120">
-        <v>217.52199999999999</v>
-      </c>
-      <c r="M120">
-        <v>206.62799999999999</v>
-      </c>
-      <c r="N120">
-        <v>196.91</v>
-      </c>
-      <c r="O120" s="3">
-        <f>AVERAGE(L120:N120)</f>
-        <v>207.01999999999998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" t="s">
-        <v>40</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121">
-        <v>10000000</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="13"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="E121" s="3">
-        <f t="shared" si="14"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="F121">
-        <v>1175.3422660000001</v>
-      </c>
-      <c r="G121">
-        <v>1210.1229740000001</v>
-      </c>
-      <c r="H121">
-        <v>1221.0125230000001</v>
-      </c>
-      <c r="I121" s="3">
-        <f t="shared" si="15"/>
-        <v>1202.1592543333336</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="18"/>
-        <v>1211.0982504444446</v>
-      </c>
-      <c r="K121" s="3">
-        <f t="shared" si="17"/>
-        <v>5.169799930276832E-6</v>
-      </c>
-      <c r="L121">
-        <v>2395.6999999999998</v>
-      </c>
-      <c r="M121">
-        <v>2293</v>
-      </c>
-      <c r="N121">
-        <v>2354.46</v>
-      </c>
-      <c r="O121" s="3">
-        <f>AVERAGE(L121:N121)</f>
-        <v>2347.7199999999998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" t="s">
-        <v>40</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122">
-        <v>1000</v>
-      </c>
-      <c r="D122">
-        <f t="shared" ref="D122:D126" si="19">C122^2</f>
-        <v>1000000</v>
-      </c>
-      <c r="E122" s="3">
-        <f t="shared" ref="E122:E126" si="20">C122 * LOG(C122, 2)</f>
-        <v>9965.7842846620879</v>
-      </c>
-      <c r="I122" s="3" t="e">
-        <f t="shared" ref="I122:I126" si="21">AVERAGE(F122:H122)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J122" t="e">
-        <f t="shared" ref="J122:J126" si="22">AVERAGE(G122:I122)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K122" s="3" t="e">
-        <f t="shared" ref="K122:K126" si="23">I122/E122</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O122" s="3" t="e">
-        <f>AVERAGE(L122:N122)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" t="s">
-        <v>40</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123">
-        <v>10000</v>
-      </c>
-      <c r="D123">
-        <f t="shared" si="19"/>
-        <v>100000000</v>
-      </c>
-      <c r="E123" s="3">
-        <f t="shared" si="20"/>
-        <v>132877.1237954945</v>
-      </c>
-      <c r="I123" s="3" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J123" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K123" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O123" s="3" t="e">
-        <f>AVERAGE(L123:N123)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" t="s">
-        <v>40</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124">
-        <v>100000</v>
-      </c>
-      <c r="D124">
-        <f t="shared" si="19"/>
-        <v>10000000000</v>
-      </c>
-      <c r="E124" s="3">
-        <f t="shared" si="20"/>
-        <v>1660964.0474436812</v>
-      </c>
-      <c r="I124" s="3" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J124" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K124" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O124" s="3" t="e">
-        <f>AVERAGE(L124:N124)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" t="s">
-        <v>40</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125">
-        <v>1000000</v>
-      </c>
-      <c r="D125">
-        <f t="shared" si="19"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="E125" s="3">
-        <f t="shared" si="20"/>
-        <v>19931568.569324173</v>
-      </c>
-      <c r="I125" s="3" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J125" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K125" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O125" s="3" t="e">
-        <f>AVERAGE(L125:N125)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="A126" t="s">
-        <v>40</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126">
-        <v>10000000</v>
-      </c>
-      <c r="D126">
-        <f t="shared" si="19"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="E126" s="3">
-        <f t="shared" si="20"/>
-        <v>232534966.64211538</v>
-      </c>
-      <c r="I126" s="3" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J126" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K126" s="3" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O126" s="3" t="e">
-        <f>AVERAGE(L126:N126)</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Testing/aa_writing_02.xlsx
+++ b/Testing/aa_writing_02.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="24">
   <si>
     <t>Computer</t>
   </si>
@@ -69,78 +75,6 @@
     <t>ThinkPad L560</t>
   </si>
   <si>
-    <t>ThinkPad L561</t>
-  </si>
-  <si>
-    <t>ThinkPad L562</t>
-  </si>
-  <si>
-    <t>ThinkPad L563</t>
-  </si>
-  <si>
-    <t>ThinkPad L564</t>
-  </si>
-  <si>
-    <t>ThinkPad L565</t>
-  </si>
-  <si>
-    <t>ThinkPad L566</t>
-  </si>
-  <si>
-    <t>ThinkPad L567</t>
-  </si>
-  <si>
-    <t>ThinkPad L568</t>
-  </si>
-  <si>
-    <t>ThinkPad L569</t>
-  </si>
-  <si>
-    <t>ThinkPad L570</t>
-  </si>
-  <si>
-    <t>ThinkPad L571</t>
-  </si>
-  <si>
-    <t>ThinkPad L572</t>
-  </si>
-  <si>
-    <t>ThinkPad L573</t>
-  </si>
-  <si>
-    <t>ThinkPad L574</t>
-  </si>
-  <si>
-    <t>ThinkPad L575</t>
-  </si>
-  <si>
-    <t>ThinkPad L576</t>
-  </si>
-  <si>
-    <t>ThinkPad L577</t>
-  </si>
-  <si>
-    <t>ThinkPad L578</t>
-  </si>
-  <si>
-    <t>ThinkPad L579</t>
-  </si>
-  <si>
-    <t>ThinkPad L580</t>
-  </si>
-  <si>
-    <t>ThinkPad L581</t>
-  </si>
-  <si>
-    <t>ThinkPad L582</t>
-  </si>
-  <si>
-    <t>ThinkPad L583</t>
-  </si>
-  <si>
-    <t>ThinkPad L584</t>
-  </si>
-  <si>
     <t>MacBook Air</t>
   </si>
   <si>
@@ -171,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -411,7 +345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -605,38 +539,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="3"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="12" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,16 +587,16 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -671,19 +605,19 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -727,7 +661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -771,7 +705,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -815,7 +749,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -853,7 +787,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -888,7 +822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -932,7 +866,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -976,7 +910,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +1024,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1068,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1112,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1222,7 +1156,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1244,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1332,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1376,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1486,7 +1420,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1530,7 +1464,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1574,7 +1508,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1618,7 +1552,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1596,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1706,7 +1640,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +1675,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1785,7 +1719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1829,7 +1763,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +1807,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1911,7 +1845,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1946,7 +1880,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1990,7 +1924,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2034,7 +1968,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2078,7 +2012,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2113,7 +2047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2148,7 +2082,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2192,7 +2126,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2236,7 +2170,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2280,7 +2214,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2324,7 +2258,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2368,7 +2302,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2412,7 +2346,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2456,7 +2390,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2500,7 +2434,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2544,7 +2478,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2588,7 +2522,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2632,7 +2566,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2676,7 +2610,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2720,7 +2654,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2764,7 +2698,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2799,7 +2733,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2827,7 +2761,7 @@
         <v>6.9670339999999999</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" ref="I52:J86" si="8">AVERAGE(F52:H52)</f>
+        <f t="shared" ref="I52:I86" si="8">AVERAGE(F52:H52)</f>
         <v>6.8328506666666664</v>
       </c>
       <c r="J52">
@@ -2843,9 +2777,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>3</v>
@@ -2887,9 +2821,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>3</v>
@@ -2931,9 +2865,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>3</v>
@@ -2975,9 +2909,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>3</v>
@@ -3010,9 +2944,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>4</v>
@@ -3054,9 +2988,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>4</v>
@@ -3098,9 +3032,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>4</v>
@@ -3142,9 +3076,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>4</v>
@@ -3186,9 +3120,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>4</v>
@@ -3221,9 +3155,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>5</v>
@@ -3265,9 +3199,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>5</v>
@@ -3309,9 +3243,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>5</v>
@@ -3353,9 +3287,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>5</v>
@@ -3397,9 +3331,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>5</v>
@@ -3441,9 +3375,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>6</v>
@@ -3485,9 +3419,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>6</v>
@@ -3529,9 +3463,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>6</v>
@@ -3573,9 +3507,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>6</v>
@@ -3617,9 +3551,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>6</v>
@@ -3661,9 +3595,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>7</v>
@@ -3705,9 +3639,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>7</v>
@@ -3745,13 +3679,13 @@
         <v>7.1576576877931759E-4</v>
       </c>
       <c r="O73" s="3" t="e">
-        <f t="shared" ref="O73:O104" si="14">AVERAGE(L73:N73)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <f t="shared" ref="O73:O101" si="14">AVERAGE(L73:N73)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>7</v>
@@ -3793,9 +3727,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>7</v>
@@ -3837,9 +3771,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>7</v>
@@ -3872,9 +3806,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>3</v>
@@ -3904,21 +3838,30 @@
         <v>14.881352</v>
       </c>
       <c r="J77">
-        <f t="shared" si="8"/>
-        <v>14.904696999999999</v>
+        <f>I77/D77</f>
+        <v>1.4881352E-5</v>
       </c>
       <c r="K77" s="3">
         <f t="shared" si="10"/>
         <v>1.493244442678059E-3</v>
       </c>
-      <c r="O77" s="3" t="e">
+      <c r="L77">
+        <v>1.427</v>
+      </c>
+      <c r="M77">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="N77">
+        <v>1.298</v>
+      </c>
+      <c r="O77" s="3">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>1.3240000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>3</v>
@@ -3948,21 +3891,30 @@
         <v>74.056766999999994</v>
       </c>
       <c r="J78">
-        <f t="shared" si="8"/>
-        <v>75.34259166666665</v>
+        <f t="shared" ref="J78:J86" si="15">I78/D78</f>
+        <v>7.4056766999999999E-7</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="10"/>
         <v>5.573327062224616E-4</v>
       </c>
-      <c r="O78" s="3" t="e">
+      <c r="L78">
+        <v>144.94300000000001</v>
+      </c>
+      <c r="M78">
+        <v>142.78899999999999</v>
+      </c>
+      <c r="N78">
+        <v>144.928</v>
+      </c>
+      <c r="O78" s="3">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>144.22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>3</v>
@@ -3992,21 +3944,30 @@
         <v>4817.3953913333326</v>
       </c>
       <c r="J79">
-        <f t="shared" si="8"/>
-        <v>4819.5192554444438</v>
+        <f t="shared" si="15"/>
+        <v>4.817395391333333E-7</v>
       </c>
       <c r="K79" s="3">
         <f t="shared" si="10"/>
         <v>2.9003610275295123E-3</v>
       </c>
-      <c r="O79" s="3" t="e">
+      <c r="L79">
+        <v>12871</v>
+      </c>
+      <c r="M79">
+        <v>12825.7</v>
+      </c>
+      <c r="N79">
+        <v>12847.1</v>
+      </c>
+      <c r="O79" s="3">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>12847.933333333334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>3</v>
@@ -4036,21 +3997,27 @@
         <v>487422.17359466664</v>
       </c>
       <c r="J80">
-        <f t="shared" si="8"/>
-        <v>487563.07445388893</v>
+        <f t="shared" si="15"/>
+        <v>4.8742217359466663E-7</v>
       </c>
       <c r="K80" s="3">
         <f t="shared" si="10"/>
         <v>2.4454782467288466E-2</v>
       </c>
-      <c r="O80" s="3" t="e">
+      <c r="L80">
+        <v>1284350</v>
+      </c>
+      <c r="M80">
+        <v>1282130</v>
+      </c>
+      <c r="O80" s="3">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>1283240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>3</v>
@@ -4071,7 +4038,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J81" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K81" s="3" t="e">
@@ -4083,9 +4050,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4</v>
@@ -4101,26 +4068,35 @@
         <f t="shared" si="13"/>
         <v>9965.7842846620879</v>
       </c>
-      <c r="I82" s="3" t="e">
+      <c r="F82">
+        <v>5.1123799999999999</v>
+      </c>
+      <c r="G82">
+        <v>5.1094920000000004</v>
+      </c>
+      <c r="H82">
+        <v>5.1664760000000003</v>
+      </c>
+      <c r="I82" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J82" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K82" s="3" t="e">
+        <v>5.1294493333333335</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="15"/>
+        <v>5.1294493333333334E-6</v>
+      </c>
+      <c r="K82" s="3">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>5.1470603685731481E-4</v>
       </c>
       <c r="O82" s="3" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>4</v>
@@ -4136,26 +4112,35 @@
         <f t="shared" si="13"/>
         <v>132877.1237954945</v>
       </c>
-      <c r="I83" s="3" t="e">
+      <c r="F83">
+        <v>95.103114000000005</v>
+      </c>
+      <c r="G83">
+        <v>103.511651</v>
+      </c>
+      <c r="H83">
+        <v>95.155928000000003</v>
+      </c>
+      <c r="I83" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J83" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K83" s="3" t="e">
+        <v>97.923564333333331</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="15"/>
+        <v>9.792356433333334E-7</v>
+      </c>
+      <c r="K83" s="3">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>7.3694825366662294E-4</v>
       </c>
       <c r="O83" s="3" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>4</v>
@@ -4171,26 +4156,35 @@
         <f t="shared" si="13"/>
         <v>1660964.0474436812</v>
       </c>
-      <c r="I84" s="3" t="e">
+      <c r="F84">
+        <v>9171.7396669999998</v>
+      </c>
+      <c r="G84">
+        <v>9165.2386989999995</v>
+      </c>
+      <c r="H84">
+        <v>9157.5771719999993</v>
+      </c>
+      <c r="I84" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J84" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K84" s="3" t="e">
+        <v>9164.8518459999996</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="15"/>
+        <v>9.1648518459999999E-7</v>
+      </c>
+      <c r="K84" s="3">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>5.5177906229248201E-3</v>
       </c>
       <c r="O84" s="3" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>4</v>
@@ -4206,26 +4200,29 @@
         <f t="shared" si="13"/>
         <v>19931568.569324173</v>
       </c>
-      <c r="I85" s="3" t="e">
+      <c r="F85">
+        <v>917663.71276000002</v>
+      </c>
+      <c r="I85" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J85" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K85" s="3" t="e">
+        <v>917663.71276000002</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="15"/>
+        <v>9.1766371275999999E-7</v>
+      </c>
+      <c r="K85" s="3">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>4.6040717245522618E-2</v>
       </c>
       <c r="O85" s="3" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>4</v>
@@ -4246,7 +4243,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J86" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K86" s="3" t="e">
@@ -4258,9 +4255,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>5</v>
@@ -4269,11 +4266,11 @@
         <v>1000</v>
       </c>
       <c r="D87">
-        <f t="shared" ref="D87:D96" si="15">C87^2</f>
+        <f t="shared" ref="D87:D96" si="16">C87^2</f>
         <v>1000000</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" ref="E87:E96" si="16">C87 * LOG(C87, 2)</f>
+        <f t="shared" ref="E87:E96" si="17">C87 * LOG(C87, 2)</f>
         <v>9965.7842846620879</v>
       </c>
       <c r="F87">
@@ -4286,15 +4283,15 @@
         <v>1.9350350000000001</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" ref="I87:I96" si="17">AVERAGE(F87:H87)</f>
+        <f t="shared" ref="I87:I96" si="18">AVERAGE(F87:H87)</f>
         <v>1.9345590000000001</v>
       </c>
       <c r="J87">
-        <f t="shared" ref="J87" si="18">I87/D87</f>
+        <f t="shared" ref="J87" si="19">I87/D87</f>
         <v>1.934559E-6</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" ref="K87:K96" si="19">I87/E87</f>
+        <f t="shared" ref="K87:K96" si="20">I87/E87</f>
         <v>1.9412009579390527E-4</v>
       </c>
       <c r="L87">
@@ -4311,9 +4308,9 @@
         <v>0.17466666666666666</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>5</v>
@@ -4322,11 +4319,11 @@
         <v>10000</v>
       </c>
       <c r="D88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100000000</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F88">
@@ -4339,15 +4336,15 @@
         <v>7.0804390000000001</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.0140669999999998</v>
       </c>
       <c r="J88">
-        <f t="shared" ref="J88:J96" si="20">AVERAGE(G88:I88)</f>
+        <f t="shared" ref="J88:J96" si="21">AVERAGE(G88:I88)</f>
         <v>7.0439713333333343</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.2786113964921836E-5</v>
       </c>
       <c r="L88">
@@ -4364,9 +4361,9 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>5</v>
@@ -4375,11 +4372,11 @@
         <v>100000</v>
       </c>
       <c r="D89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10000000000</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F89">
@@ -4392,15 +4389,15 @@
         <v>27.780306</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31.967975333333332</v>
       </c>
       <c r="J89">
+        <f t="shared" si="21"/>
+        <v>30.883961111111109</v>
+      </c>
+      <c r="K89" s="3">
         <f t="shared" si="20"/>
-        <v>30.883961111111109</v>
-      </c>
-      <c r="K89" s="3">
-        <f t="shared" si="19"/>
         <v>1.9246638951959181E-5</v>
       </c>
       <c r="L89">
@@ -4417,9 +4414,9 @@
         <v>27.125666666666664</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>5</v>
@@ -4428,11 +4425,11 @@
         <v>1000000</v>
       </c>
       <c r="D90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1000000000000</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F90">
@@ -4445,15 +4442,15 @@
         <v>153.51504800000001</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>155.46951133333334</v>
       </c>
       <c r="J90">
+        <f t="shared" si="21"/>
+        <v>155.87329177777778</v>
+      </c>
+      <c r="K90" s="3">
         <f t="shared" si="20"/>
-        <v>155.87329177777778</v>
-      </c>
-      <c r="K90" s="3">
-        <f t="shared" si="19"/>
         <v>7.8001643870924358E-6</v>
       </c>
       <c r="L90">
@@ -4470,9 +4467,9 @@
         <v>301.93866666666668</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>5</v>
@@ -4481,11 +4478,11 @@
         <v>10000000</v>
       </c>
       <c r="D91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100000000000000</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>232534966.64211538</v>
       </c>
       <c r="F91">
@@ -4498,15 +4495,15 @@
         <v>1506.2237009999999</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1500.5742360000002</v>
       </c>
       <c r="J91">
+        <f t="shared" si="21"/>
+        <v>1496.1751180000001</v>
+      </c>
+      <c r="K91" s="3">
         <f t="shared" si="20"/>
-        <v>1496.1751180000001</v>
-      </c>
-      <c r="K91" s="3">
-        <f t="shared" si="19"/>
         <v>6.4531122250937419E-6</v>
       </c>
       <c r="L91">
@@ -4523,9 +4520,9 @@
         <v>3439.8233333333337</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>6</v>
@@ -4534,11 +4531,11 @@
         <v>1000</v>
       </c>
       <c r="D92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1000000</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="F92">
@@ -4551,15 +4548,15 @@
         <v>0.81640599999999997</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.74315100000000012</v>
       </c>
       <c r="J92">
+        <f t="shared" si="21"/>
+        <v>0.75621833333333333</v>
+      </c>
+      <c r="K92" s="3">
         <f t="shared" si="20"/>
-        <v>0.75621833333333333</v>
-      </c>
-      <c r="K92" s="3">
-        <f t="shared" si="19"/>
         <v>7.4570247435894432E-5</v>
       </c>
       <c r="L92">
@@ -4576,9 +4573,9 @@
         <v>0.14533333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>6</v>
@@ -4587,11 +4584,11 @@
         <v>10000</v>
       </c>
       <c r="D93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100000000</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>132877.1237954945</v>
       </c>
       <c r="F93">
@@ -4604,15 +4601,15 @@
         <v>3.4535719999999999</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8696613333333332</v>
       </c>
       <c r="J93">
+        <f t="shared" si="21"/>
+        <v>3.9228621111111113</v>
+      </c>
+      <c r="K93" s="3">
         <f t="shared" si="20"/>
-        <v>3.9228621111111113</v>
-      </c>
-      <c r="K93" s="3">
-        <f t="shared" si="19"/>
         <v>2.9122103359860225E-5</v>
       </c>
       <c r="L93">
@@ -4629,9 +4626,9 @@
         <v>1.4303333333333335</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>6</v>
@@ -4640,11 +4637,11 @@
         <v>100000</v>
       </c>
       <c r="D94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10000000000</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="F94">
@@ -4657,15 +4654,15 @@
         <v>24.616895</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23.892097333333329</v>
       </c>
       <c r="J94">
+        <f t="shared" si="21"/>
+        <v>24.314379444444441</v>
+      </c>
+      <c r="K94" s="3">
         <f t="shared" si="20"/>
-        <v>24.314379444444441</v>
-      </c>
-      <c r="K94" s="3">
-        <f t="shared" si="19"/>
         <v>1.4384475913313496E-5</v>
       </c>
       <c r="L94">
@@ -4682,9 +4679,9 @@
         <v>17.204000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>6</v>
@@ -4693,11 +4690,11 @@
         <v>1000000</v>
       </c>
       <c r="D95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1000000000000</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19931568.569324173</v>
       </c>
       <c r="F95">
@@ -4710,15 +4707,15 @@
         <v>121.401741</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>117.85828199999999</v>
       </c>
       <c r="J95">
+        <f t="shared" si="21"/>
+        <v>117.916601</v>
+      </c>
+      <c r="K95" s="3">
         <f t="shared" si="20"/>
-        <v>117.916601</v>
-      </c>
-      <c r="K95" s="3">
-        <f t="shared" si="19"/>
         <v>5.9131463532373785E-6</v>
       </c>
       <c r="L95">
@@ -4735,9 +4732,9 @@
         <v>207.01999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>6</v>
@@ -4746,11 +4743,11 @@
         <v>10000000</v>
       </c>
       <c r="D96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100000000000000</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>232534966.64211538</v>
       </c>
       <c r="F96">
@@ -4763,15 +4760,15 @@
         <v>1221.0125230000001</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1202.1592543333336</v>
       </c>
       <c r="J96">
+        <f t="shared" si="21"/>
+        <v>1211.0982504444446</v>
+      </c>
+      <c r="K96" s="3">
         <f t="shared" si="20"/>
-        <v>1211.0982504444446</v>
-      </c>
-      <c r="K96" s="3">
-        <f t="shared" si="19"/>
         <v>5.169799930276832E-6</v>
       </c>
       <c r="L96">
@@ -4788,9 +4785,9 @@
         <v>2347.7199999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>7</v>
@@ -4799,23 +4796,23 @@
         <v>1000</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97:D101" si="21">C97^2</f>
+        <f t="shared" ref="D97:D101" si="22">C97^2</f>
         <v>1000000</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" ref="E97:E101" si="22">C97 * LOG(C97, 2)</f>
+        <f t="shared" ref="E97:E101" si="23">C97 * LOG(C97, 2)</f>
         <v>9965.7842846620879</v>
       </c>
       <c r="I97" s="3" t="e">
-        <f t="shared" ref="I97:I101" si="23">AVERAGE(F97:H97)</f>
+        <f t="shared" ref="I97:I101" si="24">AVERAGE(F97:H97)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J97" t="e">
-        <f t="shared" ref="J97:J101" si="24">AVERAGE(G97:I97)</f>
+        <f t="shared" ref="J97:J101" si="25">AVERAGE(G97:I97)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K97" s="3" t="e">
-        <f t="shared" ref="K97:K101" si="25">I97/E97</f>
+        <f t="shared" ref="K97:K101" si="26">I97/E97</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O97" s="3" t="e">
@@ -4823,9 +4820,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>7</v>
@@ -4834,23 +4831,23 @@
         <v>10000</v>
       </c>
       <c r="D98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>100000000</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>132877.1237954945</v>
       </c>
       <c r="I98" s="3" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J98" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K98" s="3" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O98" s="3" t="e">
@@ -4858,9 +4855,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>7</v>
@@ -4869,23 +4866,23 @@
         <v>100000</v>
       </c>
       <c r="D99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10000000000</v>
       </c>
       <c r="E99" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="I99" s="3" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J99" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K99" s="3" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O99" s="3" t="e">
@@ -4893,9 +4890,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>7</v>
@@ -4904,23 +4901,23 @@
         <v>1000000</v>
       </c>
       <c r="D100">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1000000000000</v>
       </c>
       <c r="E100" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>19931568.569324173</v>
       </c>
       <c r="I100" s="3" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J100" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K100" s="3" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O100" s="3" t="e">
@@ -4928,9 +4925,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>7</v>
@@ -4939,23 +4936,23 @@
         <v>10000000</v>
       </c>
       <c r="D101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>100000000000000</v>
       </c>
       <c r="E101" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>232534966.64211538</v>
       </c>
       <c r="I101" s="3" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J101" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K101" s="3" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O101" s="3" t="e">
@@ -4972,4 +4969,18 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0478F04A-1D41-4EB4-BD33-BB585464C9D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing/aa_writing_02.xlsx
+++ b/Testing/aa_writing_02.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -105,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -345,7 +340,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -539,38 +534,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="3"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="15" width="12" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -661,7 +656,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -705,7 +700,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -749,7 +744,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -787,7 +782,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -822,7 +817,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -866,7 +861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -910,7 +905,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -954,7 +949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -989,7 +984,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1024,7 +1019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1195,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +1239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1283,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1327,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1376,7 +1371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1415,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1459,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1503,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1547,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1596,7 +1591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1640,7 +1635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1719,7 +1714,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1763,7 +1758,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1807,7 +1802,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1845,7 +1840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1880,7 +1875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1924,7 +1919,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1968,7 +1963,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2012,7 +2007,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2047,7 +2042,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2082,7 +2077,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2126,7 +2121,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2170,7 +2165,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2214,7 +2209,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2258,7 +2253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2302,7 +2297,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2346,7 +2341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2390,7 +2385,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2434,7 +2429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2478,7 +2473,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2522,7 +2517,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2566,7 +2561,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2610,7 +2605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2654,7 +2649,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2698,7 +2693,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2733,7 +2728,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2777,7 +2772,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2821,7 +2816,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2865,7 +2860,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2909,7 +2904,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2944,7 +2939,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2988,7 +2983,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -3032,7 +3027,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -3076,7 +3071,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -3120,7 +3115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3155,7 +3150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3199,7 +3194,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3243,7 +3238,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3287,7 +3282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3331,7 +3326,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3375,7 +3370,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -3419,7 +3414,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3463,7 +3458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3507,7 +3502,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -3551,7 +3546,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -3595,7 +3590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3639,7 +3634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -3727,7 +3722,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -3771,7 +3766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -3806,7 +3801,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -3859,7 +3854,7 @@
         <v>1.3240000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -3912,7 +3907,7 @@
         <v>144.22</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3965,7 +3960,7 @@
         <v>12847.933333333334</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -4015,7 +4010,7 @@
         <v>1283240</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -4050,7 +4045,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -4094,7 +4089,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -4138,7 +4133,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -4182,7 +4177,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -4220,7 +4215,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -4255,7 +4250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -4308,7 +4303,7 @@
         <v>0.17466666666666666</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -4361,7 +4356,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -4414,7 +4409,7 @@
         <v>27.125666666666664</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -4467,7 +4462,7 @@
         <v>301.93866666666668</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -4520,7 +4515,7 @@
         <v>3439.8233333333337</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -4573,7 +4568,7 @@
         <v>0.14533333333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -4626,7 +4621,7 @@
         <v>1.4303333333333335</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -4679,7 +4674,7 @@
         <v>17.204000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -4732,7 +4727,7 @@
         <v>207.01999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -4785,7 +4780,7 @@
         <v>2347.7199999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -4803,24 +4798,33 @@
         <f t="shared" ref="E97:E101" si="23">C97 * LOG(C97, 2)</f>
         <v>9965.7842846620879</v>
       </c>
-      <c r="I97" s="3" t="e">
+      <c r="F97">
+        <v>12.726511</v>
+      </c>
+      <c r="G97">
+        <v>15.246131</v>
+      </c>
+      <c r="H97">
+        <v>13.645118999999999</v>
+      </c>
+      <c r="I97" s="3">
         <f t="shared" ref="I97:I101" si="24">AVERAGE(F97:H97)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J97" t="e">
+        <v>13.872587000000001</v>
+      </c>
+      <c r="J97">
         <f t="shared" ref="J97:J101" si="25">AVERAGE(G97:I97)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K97" s="3" t="e">
+        <v>14.254612333333334</v>
+      </c>
+      <c r="K97" s="3">
         <f t="shared" ref="K97:K101" si="26">I97/E97</f>
-        <v>#DIV/0!</v>
+        <v>1.3920216014860673E-3</v>
       </c>
       <c r="O97" s="3" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -4838,24 +4842,33 @@
         <f t="shared" si="23"/>
         <v>132877.1237954945</v>
       </c>
-      <c r="I98" s="3" t="e">
+      <c r="F98">
+        <v>86.402045999999999</v>
+      </c>
+      <c r="G98">
+        <v>90.485462999999996</v>
+      </c>
+      <c r="H98">
+        <v>83.001548999999997</v>
+      </c>
+      <c r="I98" s="3">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J98" t="e">
+        <v>86.629685999999992</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K98" s="3" t="e">
+        <v>86.70556599999999</v>
+      </c>
+      <c r="K98" s="3">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>6.5195335002380121E-4</v>
       </c>
       <c r="O98" s="3" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -4873,24 +4886,33 @@
         <f t="shared" si="23"/>
         <v>1660964.0474436812</v>
       </c>
-      <c r="I99" s="3" t="e">
+      <c r="F99">
+        <v>4542.8524809999999</v>
+      </c>
+      <c r="G99">
+        <v>4719.5939600000002</v>
+      </c>
+      <c r="H99">
+        <v>4667.7834579999999</v>
+      </c>
+      <c r="I99" s="3">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J99" t="e">
+        <v>4643.4099663333336</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K99" s="3" t="e">
+        <v>4676.9291281111109</v>
+      </c>
+      <c r="K99" s="3">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>2.7956113640628211E-3</v>
       </c>
       <c r="O99" s="3" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -4925,7 +4947,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -4972,15 +4994,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0478F04A-1D41-4EB4-BD33-BB585464C9D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Testing/aa_writing_02.xlsx
+++ b/Testing/aa_writing_02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="24">
   <si>
     <t>Computer</t>
   </si>
@@ -160,8 +160,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -199,7 +201,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -215,6 +217,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -230,6 +233,7 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,16 +546,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="P101" sqref="P101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -3674,7 +3679,7 @@
         <v>7.1576576877931759E-4</v>
       </c>
       <c r="O73" s="3" t="e">
-        <f t="shared" ref="O73:O101" si="14">AVERAGE(L73:N73)</f>
+        <f t="shared" ref="O73:O102" si="14">AVERAGE(L73:N73)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4791,11 +4796,11 @@
         <v>1000</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97:D101" si="22">C97^2</f>
+        <f t="shared" ref="D97:D102" si="22">C97^2</f>
         <v>1000000</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" ref="E97:E101" si="23">C97 * LOG(C97, 2)</f>
+        <f t="shared" ref="E97:E102" si="23">C97 * LOG(C97, 2)</f>
         <v>9965.7842846620879</v>
       </c>
       <c r="F97">
@@ -4808,15 +4813,15 @@
         <v>13.645118999999999</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" ref="I97:I101" si="24">AVERAGE(F97:H97)</f>
+        <f t="shared" ref="I97:I102" si="24">AVERAGE(F97:H97)</f>
         <v>13.872587000000001</v>
       </c>
       <c r="J97">
-        <f t="shared" ref="J97:J101" si="25">AVERAGE(G97:I97)</f>
+        <f t="shared" ref="J97:J102" si="25">AVERAGE(G97:I97)</f>
         <v>14.254612333333334</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" ref="K97:K101" si="26">I97/E97</f>
+        <f t="shared" ref="K97:K102" si="26">I97/E97</f>
         <v>1.3920216014860673E-3</v>
       </c>
       <c r="O97" s="3" t="e">
@@ -4955,29 +4960,48 @@
         <v>7</v>
       </c>
       <c r="C101">
+        <v>5000000</v>
+      </c>
+      <c r="D101">
+        <f>C101^2</f>
+        <v>25000000000000</v>
+      </c>
+      <c r="E101" s="3">
+        <f>C101 * LOG(C101, 2)</f>
+        <v>111267483.32105769</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
         <v>10000000</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <f t="shared" si="22"/>
         <v>100000000000000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E102" s="3">
         <f t="shared" si="23"/>
         <v>232534966.64211538</v>
       </c>
-      <c r="I101" s="3" t="e">
+      <c r="I102" s="3" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J101" t="e">
+      <c r="J102" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K101" s="3" t="e">
+      <c r="K102" s="3" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O101" s="3" t="e">
+      <c r="O102" s="3" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
